--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\Tom\Programming\Aulas - Faculdade\sales-analytics-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEB3C08-D26E-421E-8545-A495C9CE2EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD7AE66-7E3F-4791-A795-46F2C22ED1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="10">
   <si>
     <t>Data</t>
   </si>
@@ -48,14 +48,14 @@
   <si>
     <t>Logística</t>
   </si>
+  <si>
+    <t>Diversão</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,13 +108,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,13 +418,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1153"/>
+  <dimension ref="A1:C1154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1118" workbookViewId="0">
-      <selection activeCell="A1010" sqref="A1010:C1153"/>
+    <sheetView tabSelected="1" topLeftCell="A1119" workbookViewId="0">
+      <selection activeCell="F1150" sqref="F1150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2023,7 +2025,7 @@
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="3">
+      <c r="A146" s="2">
         <v>44957</v>
       </c>
       <c r="B146">
@@ -2034,7 +2036,7 @@
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="3">
+      <c r="A147" s="2">
         <v>44957</v>
       </c>
       <c r="B147">
@@ -2045,7 +2047,7 @@
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="3">
+      <c r="A148" s="2">
         <v>44957</v>
       </c>
       <c r="B148">
@@ -2056,7 +2058,7 @@
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="3">
+      <c r="A149" s="2">
         <v>44957</v>
       </c>
       <c r="B149">
@@ -2067,7 +2069,7 @@
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="3">
+      <c r="A150" s="2">
         <v>44957</v>
       </c>
       <c r="B150">
@@ -2078,7 +2080,7 @@
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="3">
+      <c r="A151" s="2">
         <v>44957</v>
       </c>
       <c r="B151">
@@ -2089,7 +2091,7 @@
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="3">
+      <c r="A152" s="2">
         <v>44985</v>
       </c>
       <c r="B152">
@@ -2100,7 +2102,7 @@
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="3">
+      <c r="A153" s="2">
         <v>44985</v>
       </c>
       <c r="B153">
@@ -2111,7 +2113,7 @@
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="3">
+      <c r="A154" s="2">
         <v>44985</v>
       </c>
       <c r="B154">
@@ -2122,7 +2124,7 @@
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="3">
+      <c r="A155" s="2">
         <v>44985</v>
       </c>
       <c r="B155">
@@ -2133,7 +2135,7 @@
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="3">
+      <c r="A156" s="2">
         <v>44985</v>
       </c>
       <c r="B156">
@@ -2144,7 +2146,7 @@
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="3">
+      <c r="A157" s="2">
         <v>44985</v>
       </c>
       <c r="B157">
@@ -2155,7 +2157,7 @@
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="3">
+      <c r="A158" s="2">
         <v>45016</v>
       </c>
       <c r="B158">
@@ -2166,7 +2168,7 @@
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="3">
+      <c r="A159" s="2">
         <v>45016</v>
       </c>
       <c r="B159">
@@ -2177,7 +2179,7 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="3">
+      <c r="A160" s="2">
         <v>45016</v>
       </c>
       <c r="B160">
@@ -2188,7 +2190,7 @@
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="3">
+      <c r="A161" s="2">
         <v>45016</v>
       </c>
       <c r="B161">
@@ -2199,7 +2201,7 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="3">
+      <c r="A162" s="2">
         <v>45016</v>
       </c>
       <c r="B162">
@@ -2210,7 +2212,7 @@
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="3">
+      <c r="A163" s="2">
         <v>45016</v>
       </c>
       <c r="B163">
@@ -2221,7 +2223,7 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="3">
+      <c r="A164" s="2">
         <v>45046</v>
       </c>
       <c r="B164">
@@ -2232,7 +2234,7 @@
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="3">
+      <c r="A165" s="2">
         <v>45046</v>
       </c>
       <c r="B165">
@@ -2243,7 +2245,7 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="3">
+      <c r="A166" s="2">
         <v>45046</v>
       </c>
       <c r="B166">
@@ -2254,7 +2256,7 @@
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="3">
+      <c r="A167" s="2">
         <v>45046</v>
       </c>
       <c r="B167">
@@ -2265,7 +2267,7 @@
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="3">
+      <c r="A168" s="2">
         <v>45046</v>
       </c>
       <c r="B168">
@@ -2276,7 +2278,7 @@
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="3">
+      <c r="A169" s="2">
         <v>45046</v>
       </c>
       <c r="B169">
@@ -2287,7 +2289,7 @@
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="3">
+      <c r="A170" s="2">
         <v>45077</v>
       </c>
       <c r="B170">
@@ -2298,7 +2300,7 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="3">
+      <c r="A171" s="2">
         <v>45077</v>
       </c>
       <c r="B171">
@@ -2309,7 +2311,7 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="3">
+      <c r="A172" s="2">
         <v>45077</v>
       </c>
       <c r="B172">
@@ -2320,7 +2322,7 @@
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="3">
+      <c r="A173" s="2">
         <v>45077</v>
       </c>
       <c r="B173">
@@ -2331,7 +2333,7 @@
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="3">
+      <c r="A174" s="2">
         <v>45077</v>
       </c>
       <c r="B174">
@@ -2342,7 +2344,7 @@
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="3">
+      <c r="A175" s="2">
         <v>45077</v>
       </c>
       <c r="B175">
@@ -2353,7 +2355,7 @@
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="3">
+      <c r="A176" s="2">
         <v>45107</v>
       </c>
       <c r="B176">
@@ -2364,7 +2366,7 @@
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="3">
+      <c r="A177" s="2">
         <v>45107</v>
       </c>
       <c r="B177">
@@ -2375,7 +2377,7 @@
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="3">
+      <c r="A178" s="2">
         <v>45107</v>
       </c>
       <c r="B178">
@@ -2386,7 +2388,7 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="3">
+      <c r="A179" s="2">
         <v>45107</v>
       </c>
       <c r="B179">
@@ -2397,7 +2399,7 @@
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="3">
+      <c r="A180" s="2">
         <v>45107</v>
       </c>
       <c r="B180">
@@ -2408,7 +2410,7 @@
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="3">
+      <c r="A181" s="2">
         <v>45107</v>
       </c>
       <c r="B181">
@@ -2419,7 +2421,7 @@
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="3">
+      <c r="A182" s="2">
         <v>45138</v>
       </c>
       <c r="B182">
@@ -2430,7 +2432,7 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="3">
+      <c r="A183" s="2">
         <v>45138</v>
       </c>
       <c r="B183">
@@ -2441,7 +2443,7 @@
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="3">
+      <c r="A184" s="2">
         <v>45138</v>
       </c>
       <c r="B184">
@@ -2452,7 +2454,7 @@
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="3">
+      <c r="A185" s="2">
         <v>45138</v>
       </c>
       <c r="B185">
@@ -2463,7 +2465,7 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="3">
+      <c r="A186" s="2">
         <v>45138</v>
       </c>
       <c r="B186">
@@ -2474,7 +2476,7 @@
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="3">
+      <c r="A187" s="2">
         <v>45138</v>
       </c>
       <c r="B187">
@@ -2485,7 +2487,7 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="3">
+      <c r="A188" s="2">
         <v>45169</v>
       </c>
       <c r="B188">
@@ -2496,7 +2498,7 @@
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="3">
+      <c r="A189" s="2">
         <v>45169</v>
       </c>
       <c r="B189">
@@ -2507,7 +2509,7 @@
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="3">
+      <c r="A190" s="2">
         <v>45169</v>
       </c>
       <c r="B190">
@@ -2518,7 +2520,7 @@
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="3">
+      <c r="A191" s="2">
         <v>45169</v>
       </c>
       <c r="B191">
@@ -2529,7 +2531,7 @@
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="3">
+      <c r="A192" s="2">
         <v>45169</v>
       </c>
       <c r="B192">
@@ -2540,7 +2542,7 @@
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="3">
+      <c r="A193" s="2">
         <v>45169</v>
       </c>
       <c r="B193">
@@ -2551,7 +2553,7 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="3">
+      <c r="A194" s="2">
         <v>45199</v>
       </c>
       <c r="B194">
@@ -2562,7 +2564,7 @@
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="3">
+      <c r="A195" s="2">
         <v>45199</v>
       </c>
       <c r="B195">
@@ -2573,7 +2575,7 @@
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="3">
+      <c r="A196" s="2">
         <v>45199</v>
       </c>
       <c r="B196">
@@ -2584,7 +2586,7 @@
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="3">
+      <c r="A197" s="2">
         <v>45199</v>
       </c>
       <c r="B197">
@@ -2595,7 +2597,7 @@
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="3">
+      <c r="A198" s="2">
         <v>45199</v>
       </c>
       <c r="B198">
@@ -2606,7 +2608,7 @@
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="3">
+      <c r="A199" s="2">
         <v>45199</v>
       </c>
       <c r="B199">
@@ -2617,7 +2619,7 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="3">
+      <c r="A200" s="2">
         <v>45230</v>
       </c>
       <c r="B200">
@@ -2628,7 +2630,7 @@
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="3">
+      <c r="A201" s="2">
         <v>45230</v>
       </c>
       <c r="B201">
@@ -2639,7 +2641,7 @@
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="3">
+      <c r="A202" s="2">
         <v>45230</v>
       </c>
       <c r="B202">
@@ -2650,7 +2652,7 @@
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="3">
+      <c r="A203" s="2">
         <v>45230</v>
       </c>
       <c r="B203">
@@ -2661,7 +2663,7 @@
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="3">
+      <c r="A204" s="2">
         <v>45230</v>
       </c>
       <c r="B204">
@@ -2672,7 +2674,7 @@
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="3">
+      <c r="A205" s="2">
         <v>45230</v>
       </c>
       <c r="B205">
@@ -2683,7 +2685,7 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="3">
+      <c r="A206" s="2">
         <v>45260</v>
       </c>
       <c r="B206">
@@ -2694,7 +2696,7 @@
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="3">
+      <c r="A207" s="2">
         <v>45260</v>
       </c>
       <c r="B207">
@@ -2705,7 +2707,7 @@
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="3">
+      <c r="A208" s="2">
         <v>45260</v>
       </c>
       <c r="B208">
@@ -2716,7 +2718,7 @@
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="3">
+      <c r="A209" s="2">
         <v>45260</v>
       </c>
       <c r="B209">
@@ -2727,7 +2729,7 @@
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="3">
+      <c r="A210" s="2">
         <v>45260</v>
       </c>
       <c r="B210">
@@ -2738,7 +2740,7 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="3">
+      <c r="A211" s="2">
         <v>45260</v>
       </c>
       <c r="B211">
@@ -2749,7 +2751,7 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="3">
+      <c r="A212" s="2">
         <v>45291</v>
       </c>
       <c r="B212">
@@ -2760,7 +2762,7 @@
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="3">
+      <c r="A213" s="2">
         <v>45291</v>
       </c>
       <c r="B213">
@@ -2771,7 +2773,7 @@
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="3">
+      <c r="A214" s="2">
         <v>45291</v>
       </c>
       <c r="B214">
@@ -2782,7 +2784,7 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="3">
+      <c r="A215" s="2">
         <v>45291</v>
       </c>
       <c r="B215">
@@ -2793,7 +2795,7 @@
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="3">
+      <c r="A216" s="2">
         <v>45291</v>
       </c>
       <c r="B216">
@@ -2804,7 +2806,7 @@
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="3">
+      <c r="A217" s="2">
         <v>45291</v>
       </c>
       <c r="B217">
@@ -2815,7 +2817,7 @@
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="3">
+      <c r="A218" s="2">
         <v>45322</v>
       </c>
       <c r="B218">
@@ -2826,7 +2828,7 @@
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="3">
+      <c r="A219" s="2">
         <v>45322</v>
       </c>
       <c r="B219">
@@ -2837,7 +2839,7 @@
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="3">
+      <c r="A220" s="2">
         <v>45322</v>
       </c>
       <c r="B220">
@@ -2848,7 +2850,7 @@
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="3">
+      <c r="A221" s="2">
         <v>45322</v>
       </c>
       <c r="B221">
@@ -2859,7 +2861,7 @@
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="3">
+      <c r="A222" s="2">
         <v>45322</v>
       </c>
       <c r="B222">
@@ -2870,7 +2872,7 @@
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="3">
+      <c r="A223" s="2">
         <v>45322</v>
       </c>
       <c r="B223">
@@ -2881,7 +2883,7 @@
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="3">
+      <c r="A224" s="2">
         <v>45351</v>
       </c>
       <c r="B224">
@@ -2892,7 +2894,7 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="3">
+      <c r="A225" s="2">
         <v>45351</v>
       </c>
       <c r="B225">
@@ -2903,7 +2905,7 @@
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="3">
+      <c r="A226" s="2">
         <v>45351</v>
       </c>
       <c r="B226">
@@ -2914,7 +2916,7 @@
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="3">
+      <c r="A227" s="2">
         <v>45351</v>
       </c>
       <c r="B227">
@@ -2925,7 +2927,7 @@
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="3">
+      <c r="A228" s="2">
         <v>45351</v>
       </c>
       <c r="B228">
@@ -2936,7 +2938,7 @@
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" s="3">
+      <c r="A229" s="2">
         <v>45351</v>
       </c>
       <c r="B229">
@@ -2947,7 +2949,7 @@
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="3">
+      <c r="A230" s="2">
         <v>45382</v>
       </c>
       <c r="B230">
@@ -2958,7 +2960,7 @@
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="3">
+      <c r="A231" s="2">
         <v>45382</v>
       </c>
       <c r="B231">
@@ -2969,7 +2971,7 @@
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="3">
+      <c r="A232" s="2">
         <v>45382</v>
       </c>
       <c r="B232">
@@ -2980,7 +2982,7 @@
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="3">
+      <c r="A233" s="2">
         <v>45382</v>
       </c>
       <c r="B233">
@@ -2991,7 +2993,7 @@
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" s="3">
+      <c r="A234" s="2">
         <v>45382</v>
       </c>
       <c r="B234">
@@ -3002,7 +3004,7 @@
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" s="3">
+      <c r="A235" s="2">
         <v>45382</v>
       </c>
       <c r="B235">
@@ -3013,7 +3015,7 @@
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="3">
+      <c r="A236" s="2">
         <v>45412</v>
       </c>
       <c r="B236">
@@ -3024,7 +3026,7 @@
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" s="3">
+      <c r="A237" s="2">
         <v>45412</v>
       </c>
       <c r="B237">
@@ -3035,7 +3037,7 @@
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="3">
+      <c r="A238" s="2">
         <v>45412</v>
       </c>
       <c r="B238">
@@ -3046,7 +3048,7 @@
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" s="3">
+      <c r="A239" s="2">
         <v>45412</v>
       </c>
       <c r="B239">
@@ -3057,7 +3059,7 @@
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" s="3">
+      <c r="A240" s="2">
         <v>45412</v>
       </c>
       <c r="B240">
@@ -3068,7 +3070,7 @@
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="3">
+      <c r="A241" s="2">
         <v>45412</v>
       </c>
       <c r="B241">
@@ -3079,7 +3081,7 @@
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="3">
+      <c r="A242" s="2">
         <v>45443</v>
       </c>
       <c r="B242">
@@ -3090,7 +3092,7 @@
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="3">
+      <c r="A243" s="2">
         <v>45443</v>
       </c>
       <c r="B243">
@@ -3101,7 +3103,7 @@
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" s="3">
+      <c r="A244" s="2">
         <v>45443</v>
       </c>
       <c r="B244">
@@ -3112,7 +3114,7 @@
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="3">
+      <c r="A245" s="2">
         <v>45443</v>
       </c>
       <c r="B245">
@@ -3123,7 +3125,7 @@
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" s="3">
+      <c r="A246" s="2">
         <v>45443</v>
       </c>
       <c r="B246">
@@ -3134,7 +3136,7 @@
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="3">
+      <c r="A247" s="2">
         <v>45443</v>
       </c>
       <c r="B247">
@@ -3145,7 +3147,7 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="3">
+      <c r="A248" s="2">
         <v>45473</v>
       </c>
       <c r="B248">
@@ -3156,7 +3158,7 @@
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="3">
+      <c r="A249" s="2">
         <v>45473</v>
       </c>
       <c r="B249">
@@ -3167,7 +3169,7 @@
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="3">
+      <c r="A250" s="2">
         <v>45473</v>
       </c>
       <c r="B250">
@@ -3178,7 +3180,7 @@
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="3">
+      <c r="A251" s="2">
         <v>45473</v>
       </c>
       <c r="B251">
@@ -3189,7 +3191,7 @@
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="3">
+      <c r="A252" s="2">
         <v>45473</v>
       </c>
       <c r="B252">
@@ -3200,7 +3202,7 @@
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" s="3">
+      <c r="A253" s="2">
         <v>45473</v>
       </c>
       <c r="B253">
@@ -3211,7 +3213,7 @@
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="3">
+      <c r="A254" s="2">
         <v>45504</v>
       </c>
       <c r="B254">
@@ -3222,7 +3224,7 @@
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" s="3">
+      <c r="A255" s="2">
         <v>45504</v>
       </c>
       <c r="B255">
@@ -3233,7 +3235,7 @@
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" s="3">
+      <c r="A256" s="2">
         <v>45504</v>
       </c>
       <c r="B256">
@@ -3244,7 +3246,7 @@
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="3">
+      <c r="A257" s="2">
         <v>45504</v>
       </c>
       <c r="B257">
@@ -3255,7 +3257,7 @@
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="3">
+      <c r="A258" s="2">
         <v>45504</v>
       </c>
       <c r="B258">
@@ -3266,7 +3268,7 @@
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="3">
+      <c r="A259" s="2">
         <v>45504</v>
       </c>
       <c r="B259">
@@ -3277,7 +3279,7 @@
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="3">
+      <c r="A260" s="2">
         <v>45535</v>
       </c>
       <c r="B260">
@@ -3288,7 +3290,7 @@
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="3">
+      <c r="A261" s="2">
         <v>45535</v>
       </c>
       <c r="B261">
@@ -3299,7 +3301,7 @@
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" s="3">
+      <c r="A262" s="2">
         <v>45535</v>
       </c>
       <c r="B262">
@@ -3310,7 +3312,7 @@
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="3">
+      <c r="A263" s="2">
         <v>45535</v>
       </c>
       <c r="B263">
@@ -3321,7 +3323,7 @@
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="3">
+      <c r="A264" s="2">
         <v>45535</v>
       </c>
       <c r="B264">
@@ -3332,7 +3334,7 @@
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="3">
+      <c r="A265" s="2">
         <v>45535</v>
       </c>
       <c r="B265">
@@ -3343,7 +3345,7 @@
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" s="3">
+      <c r="A266" s="2">
         <v>45565</v>
       </c>
       <c r="B266">
@@ -3354,7 +3356,7 @@
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" s="3">
+      <c r="A267" s="2">
         <v>45565</v>
       </c>
       <c r="B267">
@@ -3365,7 +3367,7 @@
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" s="3">
+      <c r="A268" s="2">
         <v>45565</v>
       </c>
       <c r="B268">
@@ -3376,7 +3378,7 @@
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="3">
+      <c r="A269" s="2">
         <v>45565</v>
       </c>
       <c r="B269">
@@ -3387,7 +3389,7 @@
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="3">
+      <c r="A270" s="2">
         <v>45565</v>
       </c>
       <c r="B270">
@@ -3398,7 +3400,7 @@
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" s="3">
+      <c r="A271" s="2">
         <v>45565</v>
       </c>
       <c r="B271">
@@ -3409,7 +3411,7 @@
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" s="3">
+      <c r="A272" s="2">
         <v>45596</v>
       </c>
       <c r="B272">
@@ -3420,7 +3422,7 @@
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="3">
+      <c r="A273" s="2">
         <v>45596</v>
       </c>
       <c r="B273">
@@ -3431,7 +3433,7 @@
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" s="3">
+      <c r="A274" s="2">
         <v>45596</v>
       </c>
       <c r="B274">
@@ -3442,7 +3444,7 @@
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="3">
+      <c r="A275" s="2">
         <v>45596</v>
       </c>
       <c r="B275">
@@ -3453,7 +3455,7 @@
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="3">
+      <c r="A276" s="2">
         <v>45596</v>
       </c>
       <c r="B276">
@@ -3464,7 +3466,7 @@
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="3">
+      <c r="A277" s="2">
         <v>45596</v>
       </c>
       <c r="B277">
@@ -3475,7 +3477,7 @@
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" s="3">
+      <c r="A278" s="2">
         <v>45626</v>
       </c>
       <c r="B278">
@@ -3486,7 +3488,7 @@
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" s="3">
+      <c r="A279" s="2">
         <v>45626</v>
       </c>
       <c r="B279">
@@ -3497,7 +3499,7 @@
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="3">
+      <c r="A280" s="2">
         <v>45626</v>
       </c>
       <c r="B280">
@@ -3508,7 +3510,7 @@
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="3">
+      <c r="A281" s="2">
         <v>45626</v>
       </c>
       <c r="B281">
@@ -3519,7 +3521,7 @@
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="3">
+      <c r="A282" s="2">
         <v>45626</v>
       </c>
       <c r="B282">
@@ -3530,7 +3532,7 @@
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="3">
+      <c r="A283" s="2">
         <v>45626</v>
       </c>
       <c r="B283">
@@ -3541,7 +3543,7 @@
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" s="3">
+      <c r="A284" s="2">
         <v>45657</v>
       </c>
       <c r="B284">
@@ -3552,7 +3554,7 @@
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="3">
+      <c r="A285" s="2">
         <v>45657</v>
       </c>
       <c r="B285">
@@ -3563,7 +3565,7 @@
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="3">
+      <c r="A286" s="2">
         <v>45657</v>
       </c>
       <c r="B286">
@@ -3574,7 +3576,7 @@
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="3">
+      <c r="A287" s="2">
         <v>45657</v>
       </c>
       <c r="B287">
@@ -3585,7 +3587,7 @@
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="3">
+      <c r="A288" s="2">
         <v>45657</v>
       </c>
       <c r="B288">
@@ -3596,7 +3598,7 @@
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" s="3">
+      <c r="A289" s="2">
         <v>45657</v>
       </c>
       <c r="B289">
@@ -3607,7 +3609,7 @@
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" s="3">
+      <c r="A290" s="2">
         <v>44957</v>
       </c>
       <c r="B290">
@@ -3618,7 +3620,7 @@
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" s="3">
+      <c r="A291" s="2">
         <v>44957</v>
       </c>
       <c r="B291">
@@ -3629,7 +3631,7 @@
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="3">
+      <c r="A292" s="2">
         <v>44957</v>
       </c>
       <c r="B292">
@@ -3640,7 +3642,7 @@
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293" s="3">
+      <c r="A293" s="2">
         <v>44957</v>
       </c>
       <c r="B293">
@@ -3651,7 +3653,7 @@
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="3">
+      <c r="A294" s="2">
         <v>44957</v>
       </c>
       <c r="B294">
@@ -3662,7 +3664,7 @@
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295" s="3">
+      <c r="A295" s="2">
         <v>44957</v>
       </c>
       <c r="B295">
@@ -3673,7 +3675,7 @@
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296" s="3">
+      <c r="A296" s="2">
         <v>44985</v>
       </c>
       <c r="B296">
@@ -3684,7 +3686,7 @@
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" s="3">
+      <c r="A297" s="2">
         <v>44985</v>
       </c>
       <c r="B297">
@@ -3695,7 +3697,7 @@
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="3">
+      <c r="A298" s="2">
         <v>44985</v>
       </c>
       <c r="B298">
@@ -3706,7 +3708,7 @@
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="3">
+      <c r="A299" s="2">
         <v>44985</v>
       </c>
       <c r="B299">
@@ -3717,7 +3719,7 @@
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300" s="3">
+      <c r="A300" s="2">
         <v>44985</v>
       </c>
       <c r="B300">
@@ -3728,7 +3730,7 @@
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" s="3">
+      <c r="A301" s="2">
         <v>44985</v>
       </c>
       <c r="B301">
@@ -3739,7 +3741,7 @@
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" s="3">
+      <c r="A302" s="2">
         <v>45016</v>
       </c>
       <c r="B302">
@@ -3750,7 +3752,7 @@
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" s="3">
+      <c r="A303" s="2">
         <v>45016</v>
       </c>
       <c r="B303">
@@ -3761,7 +3763,7 @@
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" s="3">
+      <c r="A304" s="2">
         <v>45016</v>
       </c>
       <c r="B304">
@@ -3772,7 +3774,7 @@
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="3">
+      <c r="A305" s="2">
         <v>45016</v>
       </c>
       <c r="B305">
@@ -3783,7 +3785,7 @@
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" s="3">
+      <c r="A306" s="2">
         <v>45016</v>
       </c>
       <c r="B306">
@@ -3794,7 +3796,7 @@
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" s="3">
+      <c r="A307" s="2">
         <v>45016</v>
       </c>
       <c r="B307">
@@ -3805,7 +3807,7 @@
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="3">
+      <c r="A308" s="2">
         <v>45046</v>
       </c>
       <c r="B308">
@@ -3816,7 +3818,7 @@
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="3">
+      <c r="A309" s="2">
         <v>45046</v>
       </c>
       <c r="B309">
@@ -3827,7 +3829,7 @@
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="3">
+      <c r="A310" s="2">
         <v>45046</v>
       </c>
       <c r="B310">
@@ -3838,7 +3840,7 @@
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" s="3">
+      <c r="A311" s="2">
         <v>45046</v>
       </c>
       <c r="B311">
@@ -3849,7 +3851,7 @@
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312" s="3">
+      <c r="A312" s="2">
         <v>45046</v>
       </c>
       <c r="B312">
@@ -3860,7 +3862,7 @@
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" s="3">
+      <c r="A313" s="2">
         <v>45046</v>
       </c>
       <c r="B313">
@@ -3871,7 +3873,7 @@
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="3">
+      <c r="A314" s="2">
         <v>45077</v>
       </c>
       <c r="B314">
@@ -3882,7 +3884,7 @@
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315" s="3">
+      <c r="A315" s="2">
         <v>45077</v>
       </c>
       <c r="B315">
@@ -3893,7 +3895,7 @@
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="3">
+      <c r="A316" s="2">
         <v>45077</v>
       </c>
       <c r="B316">
@@ -3904,7 +3906,7 @@
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317" s="3">
+      <c r="A317" s="2">
         <v>45077</v>
       </c>
       <c r="B317">
@@ -3915,7 +3917,7 @@
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318" s="3">
+      <c r="A318" s="2">
         <v>45077</v>
       </c>
       <c r="B318">
@@ -3926,7 +3928,7 @@
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" s="3">
+      <c r="A319" s="2">
         <v>45077</v>
       </c>
       <c r="B319">
@@ -3937,7 +3939,7 @@
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="3">
+      <c r="A320" s="2">
         <v>45107</v>
       </c>
       <c r="B320">
@@ -3948,7 +3950,7 @@
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" s="3">
+      <c r="A321" s="2">
         <v>45107</v>
       </c>
       <c r="B321">
@@ -3959,7 +3961,7 @@
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322" s="3">
+      <c r="A322" s="2">
         <v>45107</v>
       </c>
       <c r="B322">
@@ -3970,7 +3972,7 @@
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323" s="3">
+      <c r="A323" s="2">
         <v>45107</v>
       </c>
       <c r="B323">
@@ -3981,7 +3983,7 @@
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324" s="3">
+      <c r="A324" s="2">
         <v>45107</v>
       </c>
       <c r="B324">
@@ -3992,7 +3994,7 @@
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" s="3">
+      <c r="A325" s="2">
         <v>45107</v>
       </c>
       <c r="B325">
@@ -4003,7 +4005,7 @@
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" s="3">
+      <c r="A326" s="2">
         <v>45138</v>
       </c>
       <c r="B326">
@@ -4014,7 +4016,7 @@
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" s="3">
+      <c r="A327" s="2">
         <v>45138</v>
       </c>
       <c r="B327">
@@ -4025,7 +4027,7 @@
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328" s="3">
+      <c r="A328" s="2">
         <v>45138</v>
       </c>
       <c r="B328">
@@ -4036,7 +4038,7 @@
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329" s="3">
+      <c r="A329" s="2">
         <v>45138</v>
       </c>
       <c r="B329">
@@ -4047,7 +4049,7 @@
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" s="3">
+      <c r="A330" s="2">
         <v>45138</v>
       </c>
       <c r="B330">
@@ -4058,7 +4060,7 @@
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" s="3">
+      <c r="A331" s="2">
         <v>45138</v>
       </c>
       <c r="B331">
@@ -4069,7 +4071,7 @@
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" s="3">
+      <c r="A332" s="2">
         <v>45169</v>
       </c>
       <c r="B332">
@@ -4080,7 +4082,7 @@
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333" s="3">
+      <c r="A333" s="2">
         <v>45169</v>
       </c>
       <c r="B333">
@@ -4091,7 +4093,7 @@
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" s="3">
+      <c r="A334" s="2">
         <v>45169</v>
       </c>
       <c r="B334">
@@ -4102,7 +4104,7 @@
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335" s="3">
+      <c r="A335" s="2">
         <v>45169</v>
       </c>
       <c r="B335">
@@ -4113,7 +4115,7 @@
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" s="3">
+      <c r="A336" s="2">
         <v>45169</v>
       </c>
       <c r="B336">
@@ -4124,7 +4126,7 @@
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337" s="3">
+      <c r="A337" s="2">
         <v>45169</v>
       </c>
       <c r="B337">
@@ -4135,7 +4137,7 @@
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338" s="3">
+      <c r="A338" s="2">
         <v>45199</v>
       </c>
       <c r="B338">
@@ -4146,7 +4148,7 @@
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A339" s="3">
+      <c r="A339" s="2">
         <v>45199</v>
       </c>
       <c r="B339">
@@ -4157,7 +4159,7 @@
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A340" s="3">
+      <c r="A340" s="2">
         <v>45199</v>
       </c>
       <c r="B340">
@@ -4168,7 +4170,7 @@
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A341" s="3">
+      <c r="A341" s="2">
         <v>45199</v>
       </c>
       <c r="B341">
@@ -4179,7 +4181,7 @@
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" s="3">
+      <c r="A342" s="2">
         <v>45199</v>
       </c>
       <c r="B342">
@@ -4190,7 +4192,7 @@
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343" s="3">
+      <c r="A343" s="2">
         <v>45199</v>
       </c>
       <c r="B343">
@@ -4201,7 +4203,7 @@
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A344" s="3">
+      <c r="A344" s="2">
         <v>45230</v>
       </c>
       <c r="B344">
@@ -4212,7 +4214,7 @@
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A345" s="3">
+      <c r="A345" s="2">
         <v>45230</v>
       </c>
       <c r="B345">
@@ -4223,7 +4225,7 @@
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346" s="3">
+      <c r="A346" s="2">
         <v>45230</v>
       </c>
       <c r="B346">
@@ -4234,7 +4236,7 @@
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A347" s="3">
+      <c r="A347" s="2">
         <v>45230</v>
       </c>
       <c r="B347">
@@ -4245,7 +4247,7 @@
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A348" s="3">
+      <c r="A348" s="2">
         <v>45230</v>
       </c>
       <c r="B348">
@@ -4256,7 +4258,7 @@
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A349" s="3">
+      <c r="A349" s="2">
         <v>45230</v>
       </c>
       <c r="B349">
@@ -4267,7 +4269,7 @@
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A350" s="3">
+      <c r="A350" s="2">
         <v>45260</v>
       </c>
       <c r="B350">
@@ -4278,7 +4280,7 @@
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A351" s="3">
+      <c r="A351" s="2">
         <v>45260</v>
       </c>
       <c r="B351">
@@ -4289,7 +4291,7 @@
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A352" s="3">
+      <c r="A352" s="2">
         <v>45260</v>
       </c>
       <c r="B352">
@@ -4300,7 +4302,7 @@
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A353" s="3">
+      <c r="A353" s="2">
         <v>45260</v>
       </c>
       <c r="B353">
@@ -4311,7 +4313,7 @@
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A354" s="3">
+      <c r="A354" s="2">
         <v>45260</v>
       </c>
       <c r="B354">
@@ -4322,7 +4324,7 @@
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A355" s="3">
+      <c r="A355" s="2">
         <v>45260</v>
       </c>
       <c r="B355">
@@ -4333,7 +4335,7 @@
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A356" s="3">
+      <c r="A356" s="2">
         <v>45291</v>
       </c>
       <c r="B356">
@@ -4344,7 +4346,7 @@
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A357" s="3">
+      <c r="A357" s="2">
         <v>45291</v>
       </c>
       <c r="B357">
@@ -4355,7 +4357,7 @@
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A358" s="3">
+      <c r="A358" s="2">
         <v>45291</v>
       </c>
       <c r="B358">
@@ -4366,7 +4368,7 @@
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A359" s="3">
+      <c r="A359" s="2">
         <v>45291</v>
       </c>
       <c r="B359">
@@ -4377,7 +4379,7 @@
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A360" s="3">
+      <c r="A360" s="2">
         <v>45291</v>
       </c>
       <c r="B360">
@@ -4388,7 +4390,7 @@
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A361" s="3">
+      <c r="A361" s="2">
         <v>45291</v>
       </c>
       <c r="B361">
@@ -4399,7 +4401,7 @@
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A362" s="3">
+      <c r="A362" s="2">
         <v>45322</v>
       </c>
       <c r="B362">
@@ -4410,7 +4412,7 @@
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A363" s="3">
+      <c r="A363" s="2">
         <v>45322</v>
       </c>
       <c r="B363">
@@ -4421,7 +4423,7 @@
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A364" s="3">
+      <c r="A364" s="2">
         <v>45322</v>
       </c>
       <c r="B364">
@@ -4432,7 +4434,7 @@
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A365" s="3">
+      <c r="A365" s="2">
         <v>45322</v>
       </c>
       <c r="B365">
@@ -4443,7 +4445,7 @@
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A366" s="3">
+      <c r="A366" s="2">
         <v>45322</v>
       </c>
       <c r="B366">
@@ -4454,7 +4456,7 @@
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A367" s="3">
+      <c r="A367" s="2">
         <v>45322</v>
       </c>
       <c r="B367">
@@ -4465,7 +4467,7 @@
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A368" s="3">
+      <c r="A368" s="2">
         <v>45351</v>
       </c>
       <c r="B368">
@@ -4476,7 +4478,7 @@
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369" s="3">
+      <c r="A369" s="2">
         <v>45351</v>
       </c>
       <c r="B369">
@@ -4487,7 +4489,7 @@
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A370" s="3">
+      <c r="A370" s="2">
         <v>45351</v>
       </c>
       <c r="B370">
@@ -4498,7 +4500,7 @@
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371" s="3">
+      <c r="A371" s="2">
         <v>45351</v>
       </c>
       <c r="B371">
@@ -4509,7 +4511,7 @@
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A372" s="3">
+      <c r="A372" s="2">
         <v>45351</v>
       </c>
       <c r="B372">
@@ -4520,7 +4522,7 @@
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A373" s="3">
+      <c r="A373" s="2">
         <v>45351</v>
       </c>
       <c r="B373">
@@ -4531,7 +4533,7 @@
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A374" s="3">
+      <c r="A374" s="2">
         <v>45382</v>
       </c>
       <c r="B374">
@@ -4542,7 +4544,7 @@
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A375" s="3">
+      <c r="A375" s="2">
         <v>45382</v>
       </c>
       <c r="B375">
@@ -4553,7 +4555,7 @@
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A376" s="3">
+      <c r="A376" s="2">
         <v>45382</v>
       </c>
       <c r="B376">
@@ -4564,7 +4566,7 @@
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A377" s="3">
+      <c r="A377" s="2">
         <v>45382</v>
       </c>
       <c r="B377">
@@ -4575,7 +4577,7 @@
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A378" s="3">
+      <c r="A378" s="2">
         <v>45382</v>
       </c>
       <c r="B378">
@@ -4586,7 +4588,7 @@
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A379" s="3">
+      <c r="A379" s="2">
         <v>45382</v>
       </c>
       <c r="B379">
@@ -4597,7 +4599,7 @@
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A380" s="3">
+      <c r="A380" s="2">
         <v>45412</v>
       </c>
       <c r="B380">
@@ -4608,7 +4610,7 @@
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A381" s="3">
+      <c r="A381" s="2">
         <v>45412</v>
       </c>
       <c r="B381">
@@ -4619,7 +4621,7 @@
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A382" s="3">
+      <c r="A382" s="2">
         <v>45412</v>
       </c>
       <c r="B382">
@@ -4630,7 +4632,7 @@
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A383" s="3">
+      <c r="A383" s="2">
         <v>45412</v>
       </c>
       <c r="B383">
@@ -4641,7 +4643,7 @@
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A384" s="3">
+      <c r="A384" s="2">
         <v>45412</v>
       </c>
       <c r="B384">
@@ -4652,7 +4654,7 @@
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A385" s="3">
+      <c r="A385" s="2">
         <v>45412</v>
       </c>
       <c r="B385">
@@ -4663,7 +4665,7 @@
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A386" s="3">
+      <c r="A386" s="2">
         <v>45443</v>
       </c>
       <c r="B386">
@@ -4674,7 +4676,7 @@
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A387" s="3">
+      <c r="A387" s="2">
         <v>45443</v>
       </c>
       <c r="B387">
@@ -4685,7 +4687,7 @@
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A388" s="3">
+      <c r="A388" s="2">
         <v>45443</v>
       </c>
       <c r="B388">
@@ -4696,7 +4698,7 @@
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A389" s="3">
+      <c r="A389" s="2">
         <v>45443</v>
       </c>
       <c r="B389">
@@ -4707,7 +4709,7 @@
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A390" s="3">
+      <c r="A390" s="2">
         <v>45443</v>
       </c>
       <c r="B390">
@@ -4718,7 +4720,7 @@
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A391" s="3">
+      <c r="A391" s="2">
         <v>45443</v>
       </c>
       <c r="B391">
@@ -4729,7 +4731,7 @@
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A392" s="3">
+      <c r="A392" s="2">
         <v>45473</v>
       </c>
       <c r="B392">
@@ -4740,7 +4742,7 @@
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A393" s="3">
+      <c r="A393" s="2">
         <v>45473</v>
       </c>
       <c r="B393">
@@ -4751,7 +4753,7 @@
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A394" s="3">
+      <c r="A394" s="2">
         <v>45473</v>
       </c>
       <c r="B394">
@@ -4762,7 +4764,7 @@
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A395" s="3">
+      <c r="A395" s="2">
         <v>45473</v>
       </c>
       <c r="B395">
@@ -4773,7 +4775,7 @@
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A396" s="3">
+      <c r="A396" s="2">
         <v>45473</v>
       </c>
       <c r="B396">
@@ -4784,7 +4786,7 @@
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A397" s="3">
+      <c r="A397" s="2">
         <v>45473</v>
       </c>
       <c r="B397">
@@ -4795,7 +4797,7 @@
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A398" s="3">
+      <c r="A398" s="2">
         <v>45504</v>
       </c>
       <c r="B398">
@@ -4806,7 +4808,7 @@
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A399" s="3">
+      <c r="A399" s="2">
         <v>45504</v>
       </c>
       <c r="B399">
@@ -4817,7 +4819,7 @@
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A400" s="3">
+      <c r="A400" s="2">
         <v>45504</v>
       </c>
       <c r="B400">
@@ -4828,7 +4830,7 @@
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A401" s="3">
+      <c r="A401" s="2">
         <v>45504</v>
       </c>
       <c r="B401">
@@ -4839,7 +4841,7 @@
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A402" s="3">
+      <c r="A402" s="2">
         <v>45504</v>
       </c>
       <c r="B402">
@@ -4850,7 +4852,7 @@
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A403" s="3">
+      <c r="A403" s="2">
         <v>45504</v>
       </c>
       <c r="B403">
@@ -4861,7 +4863,7 @@
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A404" s="3">
+      <c r="A404" s="2">
         <v>45535</v>
       </c>
       <c r="B404">
@@ -4872,7 +4874,7 @@
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A405" s="3">
+      <c r="A405" s="2">
         <v>45535</v>
       </c>
       <c r="B405">
@@ -4883,7 +4885,7 @@
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A406" s="3">
+      <c r="A406" s="2">
         <v>45535</v>
       </c>
       <c r="B406">
@@ -4894,7 +4896,7 @@
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A407" s="3">
+      <c r="A407" s="2">
         <v>45535</v>
       </c>
       <c r="B407">
@@ -4905,7 +4907,7 @@
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A408" s="3">
+      <c r="A408" s="2">
         <v>45535</v>
       </c>
       <c r="B408">
@@ -4916,7 +4918,7 @@
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A409" s="3">
+      <c r="A409" s="2">
         <v>45535</v>
       </c>
       <c r="B409">
@@ -4927,7 +4929,7 @@
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A410" s="3">
+      <c r="A410" s="2">
         <v>45565</v>
       </c>
       <c r="B410">
@@ -4938,7 +4940,7 @@
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A411" s="3">
+      <c r="A411" s="2">
         <v>45565</v>
       </c>
       <c r="B411">
@@ -4949,7 +4951,7 @@
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A412" s="3">
+      <c r="A412" s="2">
         <v>45565</v>
       </c>
       <c r="B412">
@@ -4960,7 +4962,7 @@
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A413" s="3">
+      <c r="A413" s="2">
         <v>45565</v>
       </c>
       <c r="B413">
@@ -4971,7 +4973,7 @@
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A414" s="3">
+      <c r="A414" s="2">
         <v>45565</v>
       </c>
       <c r="B414">
@@ -4982,7 +4984,7 @@
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A415" s="3">
+      <c r="A415" s="2">
         <v>45565</v>
       </c>
       <c r="B415">
@@ -4993,7 +4995,7 @@
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A416" s="3">
+      <c r="A416" s="2">
         <v>45596</v>
       </c>
       <c r="B416">
@@ -5004,7 +5006,7 @@
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A417" s="3">
+      <c r="A417" s="2">
         <v>45596</v>
       </c>
       <c r="B417">
@@ -5015,7 +5017,7 @@
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A418" s="3">
+      <c r="A418" s="2">
         <v>45596</v>
       </c>
       <c r="B418">
@@ -5026,7 +5028,7 @@
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A419" s="3">
+      <c r="A419" s="2">
         <v>45596</v>
       </c>
       <c r="B419">
@@ -5037,7 +5039,7 @@
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A420" s="3">
+      <c r="A420" s="2">
         <v>45596</v>
       </c>
       <c r="B420">
@@ -5048,7 +5050,7 @@
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A421" s="3">
+      <c r="A421" s="2">
         <v>45596</v>
       </c>
       <c r="B421">
@@ -5059,7 +5061,7 @@
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A422" s="3">
+      <c r="A422" s="2">
         <v>45626</v>
       </c>
       <c r="B422">
@@ -5070,7 +5072,7 @@
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A423" s="3">
+      <c r="A423" s="2">
         <v>45626</v>
       </c>
       <c r="B423">
@@ -5081,7 +5083,7 @@
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A424" s="3">
+      <c r="A424" s="2">
         <v>45626</v>
       </c>
       <c r="B424">
@@ -5092,7 +5094,7 @@
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A425" s="3">
+      <c r="A425" s="2">
         <v>45626</v>
       </c>
       <c r="B425">
@@ -5103,7 +5105,7 @@
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A426" s="3">
+      <c r="A426" s="2">
         <v>45626</v>
       </c>
       <c r="B426">
@@ -5114,7 +5116,7 @@
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A427" s="3">
+      <c r="A427" s="2">
         <v>45626</v>
       </c>
       <c r="B427">
@@ -5125,7 +5127,7 @@
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A428" s="3">
+      <c r="A428" s="2">
         <v>45657</v>
       </c>
       <c r="B428">
@@ -5136,7 +5138,7 @@
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A429" s="3">
+      <c r="A429" s="2">
         <v>45657</v>
       </c>
       <c r="B429">
@@ -5147,7 +5149,7 @@
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A430" s="3">
+      <c r="A430" s="2">
         <v>45657</v>
       </c>
       <c r="B430">
@@ -5158,7 +5160,7 @@
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A431" s="3">
+      <c r="A431" s="2">
         <v>45657</v>
       </c>
       <c r="B431">
@@ -5169,7 +5171,7 @@
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A432" s="3">
+      <c r="A432" s="2">
         <v>45657</v>
       </c>
       <c r="B432">
@@ -5180,7 +5182,7 @@
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A433" s="3">
+      <c r="A433" s="2">
         <v>45657</v>
       </c>
       <c r="B433">
@@ -5191,7 +5193,7 @@
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A434" s="3">
+      <c r="A434" s="2">
         <v>44957</v>
       </c>
       <c r="B434">
@@ -5202,7 +5204,7 @@
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A435" s="3">
+      <c r="A435" s="2">
         <v>44957</v>
       </c>
       <c r="B435">
@@ -5213,7 +5215,7 @@
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A436" s="3">
+      <c r="A436" s="2">
         <v>44957</v>
       </c>
       <c r="B436">
@@ -5224,7 +5226,7 @@
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A437" s="3">
+      <c r="A437" s="2">
         <v>44957</v>
       </c>
       <c r="B437">
@@ -5235,7 +5237,7 @@
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A438" s="3">
+      <c r="A438" s="2">
         <v>44957</v>
       </c>
       <c r="B438">
@@ -5246,7 +5248,7 @@
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A439" s="3">
+      <c r="A439" s="2">
         <v>44957</v>
       </c>
       <c r="B439">
@@ -5257,7 +5259,7 @@
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A440" s="3">
+      <c r="A440" s="2">
         <v>44985</v>
       </c>
       <c r="B440">
@@ -5268,7 +5270,7 @@
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A441" s="3">
+      <c r="A441" s="2">
         <v>44985</v>
       </c>
       <c r="B441">
@@ -5279,7 +5281,7 @@
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A442" s="3">
+      <c r="A442" s="2">
         <v>44985</v>
       </c>
       <c r="B442">
@@ -5290,7 +5292,7 @@
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A443" s="3">
+      <c r="A443" s="2">
         <v>44985</v>
       </c>
       <c r="B443">
@@ -5301,7 +5303,7 @@
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A444" s="3">
+      <c r="A444" s="2">
         <v>44985</v>
       </c>
       <c r="B444">
@@ -5312,7 +5314,7 @@
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A445" s="3">
+      <c r="A445" s="2">
         <v>44985</v>
       </c>
       <c r="B445">
@@ -5323,7 +5325,7 @@
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A446" s="3">
+      <c r="A446" s="2">
         <v>45016</v>
       </c>
       <c r="B446">
@@ -5334,7 +5336,7 @@
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A447" s="3">
+      <c r="A447" s="2">
         <v>45016</v>
       </c>
       <c r="B447">
@@ -5345,7 +5347,7 @@
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A448" s="3">
+      <c r="A448" s="2">
         <v>45016</v>
       </c>
       <c r="B448">
@@ -5356,7 +5358,7 @@
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A449" s="3">
+      <c r="A449" s="2">
         <v>45016</v>
       </c>
       <c r="B449">
@@ -5367,7 +5369,7 @@
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A450" s="3">
+      <c r="A450" s="2">
         <v>45016</v>
       </c>
       <c r="B450">
@@ -5378,7 +5380,7 @@
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A451" s="3">
+      <c r="A451" s="2">
         <v>45016</v>
       </c>
       <c r="B451">
@@ -5389,7 +5391,7 @@
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A452" s="3">
+      <c r="A452" s="2">
         <v>45046</v>
       </c>
       <c r="B452">
@@ -5400,7 +5402,7 @@
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A453" s="3">
+      <c r="A453" s="2">
         <v>45046</v>
       </c>
       <c r="B453">
@@ -5411,7 +5413,7 @@
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A454" s="3">
+      <c r="A454" s="2">
         <v>45046</v>
       </c>
       <c r="B454">
@@ -5422,7 +5424,7 @@
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A455" s="3">
+      <c r="A455" s="2">
         <v>45046</v>
       </c>
       <c r="B455">
@@ -5433,7 +5435,7 @@
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A456" s="3">
+      <c r="A456" s="2">
         <v>45046</v>
       </c>
       <c r="B456">
@@ -5444,7 +5446,7 @@
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A457" s="3">
+      <c r="A457" s="2">
         <v>45046</v>
       </c>
       <c r="B457">
@@ -5455,7 +5457,7 @@
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A458" s="3">
+      <c r="A458" s="2">
         <v>45077</v>
       </c>
       <c r="B458">
@@ -5466,7 +5468,7 @@
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A459" s="3">
+      <c r="A459" s="2">
         <v>45077</v>
       </c>
       <c r="B459">
@@ -5477,7 +5479,7 @@
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A460" s="3">
+      <c r="A460" s="2">
         <v>45077</v>
       </c>
       <c r="B460">
@@ -5488,7 +5490,7 @@
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A461" s="3">
+      <c r="A461" s="2">
         <v>45077</v>
       </c>
       <c r="B461">
@@ -5499,7 +5501,7 @@
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A462" s="3">
+      <c r="A462" s="2">
         <v>45077</v>
       </c>
       <c r="B462">
@@ -5510,7 +5512,7 @@
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A463" s="3">
+      <c r="A463" s="2">
         <v>45077</v>
       </c>
       <c r="B463">
@@ -5521,7 +5523,7 @@
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A464" s="3">
+      <c r="A464" s="2">
         <v>45107</v>
       </c>
       <c r="B464">
@@ -5532,7 +5534,7 @@
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A465" s="3">
+      <c r="A465" s="2">
         <v>45107</v>
       </c>
       <c r="B465">
@@ -5543,7 +5545,7 @@
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A466" s="3">
+      <c r="A466" s="2">
         <v>45107</v>
       </c>
       <c r="B466">
@@ -5554,7 +5556,7 @@
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A467" s="3">
+      <c r="A467" s="2">
         <v>45107</v>
       </c>
       <c r="B467">
@@ -5565,7 +5567,7 @@
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A468" s="3">
+      <c r="A468" s="2">
         <v>45107</v>
       </c>
       <c r="B468">
@@ -5576,7 +5578,7 @@
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A469" s="3">
+      <c r="A469" s="2">
         <v>45107</v>
       </c>
       <c r="B469">
@@ -5587,7 +5589,7 @@
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A470" s="3">
+      <c r="A470" s="2">
         <v>45138</v>
       </c>
       <c r="B470">
@@ -5598,7 +5600,7 @@
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A471" s="3">
+      <c r="A471" s="2">
         <v>45138</v>
       </c>
       <c r="B471">
@@ -5609,7 +5611,7 @@
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A472" s="3">
+      <c r="A472" s="2">
         <v>45138</v>
       </c>
       <c r="B472">
@@ -5620,7 +5622,7 @@
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A473" s="3">
+      <c r="A473" s="2">
         <v>45138</v>
       </c>
       <c r="B473">
@@ -5631,7 +5633,7 @@
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A474" s="3">
+      <c r="A474" s="2">
         <v>45138</v>
       </c>
       <c r="B474">
@@ -5642,7 +5644,7 @@
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A475" s="3">
+      <c r="A475" s="2">
         <v>45138</v>
       </c>
       <c r="B475">
@@ -5653,7 +5655,7 @@
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A476" s="3">
+      <c r="A476" s="2">
         <v>45169</v>
       </c>
       <c r="B476">
@@ -5664,7 +5666,7 @@
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A477" s="3">
+      <c r="A477" s="2">
         <v>45169</v>
       </c>
       <c r="B477">
@@ -5675,7 +5677,7 @@
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A478" s="3">
+      <c r="A478" s="2">
         <v>45169</v>
       </c>
       <c r="B478">
@@ -5686,7 +5688,7 @@
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A479" s="3">
+      <c r="A479" s="2">
         <v>45169</v>
       </c>
       <c r="B479">
@@ -5697,7 +5699,7 @@
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A480" s="3">
+      <c r="A480" s="2">
         <v>45169</v>
       </c>
       <c r="B480">
@@ -5708,7 +5710,7 @@
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A481" s="3">
+      <c r="A481" s="2">
         <v>45169</v>
       </c>
       <c r="B481">
@@ -5719,7 +5721,7 @@
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A482" s="3">
+      <c r="A482" s="2">
         <v>45199</v>
       </c>
       <c r="B482">
@@ -5730,7 +5732,7 @@
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A483" s="3">
+      <c r="A483" s="2">
         <v>45199</v>
       </c>
       <c r="B483">
@@ -5741,7 +5743,7 @@
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A484" s="3">
+      <c r="A484" s="2">
         <v>45199</v>
       </c>
       <c r="B484">
@@ -5752,7 +5754,7 @@
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A485" s="3">
+      <c r="A485" s="2">
         <v>45199</v>
       </c>
       <c r="B485">
@@ -5763,7 +5765,7 @@
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A486" s="3">
+      <c r="A486" s="2">
         <v>45199</v>
       </c>
       <c r="B486">
@@ -5774,7 +5776,7 @@
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A487" s="3">
+      <c r="A487" s="2">
         <v>45199</v>
       </c>
       <c r="B487">
@@ -5785,7 +5787,7 @@
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A488" s="3">
+      <c r="A488" s="2">
         <v>45230</v>
       </c>
       <c r="B488">
@@ -5796,7 +5798,7 @@
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A489" s="3">
+      <c r="A489" s="2">
         <v>45230</v>
       </c>
       <c r="B489">
@@ -5807,7 +5809,7 @@
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A490" s="3">
+      <c r="A490" s="2">
         <v>45230</v>
       </c>
       <c r="B490">
@@ -5818,7 +5820,7 @@
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A491" s="3">
+      <c r="A491" s="2">
         <v>45230</v>
       </c>
       <c r="B491">
@@ -5829,7 +5831,7 @@
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A492" s="3">
+      <c r="A492" s="2">
         <v>45230</v>
       </c>
       <c r="B492">
@@ -5840,7 +5842,7 @@
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A493" s="3">
+      <c r="A493" s="2">
         <v>45230</v>
       </c>
       <c r="B493">
@@ -5851,7 +5853,7 @@
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A494" s="3">
+      <c r="A494" s="2">
         <v>45260</v>
       </c>
       <c r="B494">
@@ -5862,7 +5864,7 @@
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A495" s="3">
+      <c r="A495" s="2">
         <v>45260</v>
       </c>
       <c r="B495">
@@ -5873,7 +5875,7 @@
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A496" s="3">
+      <c r="A496" s="2">
         <v>45260</v>
       </c>
       <c r="B496">
@@ -5884,7 +5886,7 @@
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A497" s="3">
+      <c r="A497" s="2">
         <v>45260</v>
       </c>
       <c r="B497">
@@ -5895,7 +5897,7 @@
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A498" s="3">
+      <c r="A498" s="2">
         <v>45260</v>
       </c>
       <c r="B498">
@@ -5906,7 +5908,7 @@
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A499" s="3">
+      <c r="A499" s="2">
         <v>45260</v>
       </c>
       <c r="B499">
@@ -5917,7 +5919,7 @@
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A500" s="3">
+      <c r="A500" s="2">
         <v>45291</v>
       </c>
       <c r="B500">
@@ -5928,7 +5930,7 @@
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A501" s="3">
+      <c r="A501" s="2">
         <v>45291</v>
       </c>
       <c r="B501">
@@ -5939,7 +5941,7 @@
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A502" s="3">
+      <c r="A502" s="2">
         <v>45291</v>
       </c>
       <c r="B502">
@@ -5950,7 +5952,7 @@
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A503" s="3">
+      <c r="A503" s="2">
         <v>45291</v>
       </c>
       <c r="B503">
@@ -5961,7 +5963,7 @@
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A504" s="3">
+      <c r="A504" s="2">
         <v>45291</v>
       </c>
       <c r="B504">
@@ -5972,7 +5974,7 @@
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A505" s="3">
+      <c r="A505" s="2">
         <v>45291</v>
       </c>
       <c r="B505">
@@ -5983,7 +5985,7 @@
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A506" s="3">
+      <c r="A506" s="2">
         <v>45322</v>
       </c>
       <c r="B506">
@@ -5994,7 +5996,7 @@
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A507" s="3">
+      <c r="A507" s="2">
         <v>45322</v>
       </c>
       <c r="B507">
@@ -6005,7 +6007,7 @@
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A508" s="3">
+      <c r="A508" s="2">
         <v>45322</v>
       </c>
       <c r="B508">
@@ -6016,7 +6018,7 @@
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A509" s="3">
+      <c r="A509" s="2">
         <v>45322</v>
       </c>
       <c r="B509">
@@ -6027,7 +6029,7 @@
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A510" s="3">
+      <c r="A510" s="2">
         <v>45322</v>
       </c>
       <c r="B510">
@@ -6038,7 +6040,7 @@
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A511" s="3">
+      <c r="A511" s="2">
         <v>45322</v>
       </c>
       <c r="B511">
@@ -6049,7 +6051,7 @@
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A512" s="3">
+      <c r="A512" s="2">
         <v>45351</v>
       </c>
       <c r="B512">
@@ -6060,7 +6062,7 @@
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A513" s="3">
+      <c r="A513" s="2">
         <v>45351</v>
       </c>
       <c r="B513">
@@ -6071,7 +6073,7 @@
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A514" s="3">
+      <c r="A514" s="2">
         <v>45351</v>
       </c>
       <c r="B514">
@@ -6082,7 +6084,7 @@
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A515" s="3">
+      <c r="A515" s="2">
         <v>45351</v>
       </c>
       <c r="B515">
@@ -6093,7 +6095,7 @@
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A516" s="3">
+      <c r="A516" s="2">
         <v>45351</v>
       </c>
       <c r="B516">
@@ -6104,7 +6106,7 @@
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A517" s="3">
+      <c r="A517" s="2">
         <v>45351</v>
       </c>
       <c r="B517">
@@ -6115,7 +6117,7 @@
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A518" s="3">
+      <c r="A518" s="2">
         <v>45382</v>
       </c>
       <c r="B518">
@@ -6126,7 +6128,7 @@
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A519" s="3">
+      <c r="A519" s="2">
         <v>45382</v>
       </c>
       <c r="B519">
@@ -6137,7 +6139,7 @@
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A520" s="3">
+      <c r="A520" s="2">
         <v>45382</v>
       </c>
       <c r="B520">
@@ -6148,7 +6150,7 @@
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A521" s="3">
+      <c r="A521" s="2">
         <v>45382</v>
       </c>
       <c r="B521">
@@ -6159,7 +6161,7 @@
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A522" s="3">
+      <c r="A522" s="2">
         <v>45382</v>
       </c>
       <c r="B522">
@@ -6170,7 +6172,7 @@
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A523" s="3">
+      <c r="A523" s="2">
         <v>45382</v>
       </c>
       <c r="B523">
@@ -6181,7 +6183,7 @@
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A524" s="3">
+      <c r="A524" s="2">
         <v>45412</v>
       </c>
       <c r="B524">
@@ -6192,7 +6194,7 @@
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A525" s="3">
+      <c r="A525" s="2">
         <v>45412</v>
       </c>
       <c r="B525">
@@ -6203,7 +6205,7 @@
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A526" s="3">
+      <c r="A526" s="2">
         <v>45412</v>
       </c>
       <c r="B526">
@@ -6214,7 +6216,7 @@
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A527" s="3">
+      <c r="A527" s="2">
         <v>45412</v>
       </c>
       <c r="B527">
@@ -6225,7 +6227,7 @@
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A528" s="3">
+      <c r="A528" s="2">
         <v>45412</v>
       </c>
       <c r="B528">
@@ -6236,7 +6238,7 @@
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A529" s="3">
+      <c r="A529" s="2">
         <v>45412</v>
       </c>
       <c r="B529">
@@ -6247,7 +6249,7 @@
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A530" s="3">
+      <c r="A530" s="2">
         <v>45443</v>
       </c>
       <c r="B530">
@@ -6258,7 +6260,7 @@
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A531" s="3">
+      <c r="A531" s="2">
         <v>45443</v>
       </c>
       <c r="B531">
@@ -6269,7 +6271,7 @@
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A532" s="3">
+      <c r="A532" s="2">
         <v>45443</v>
       </c>
       <c r="B532">
@@ -6280,7 +6282,7 @@
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A533" s="3">
+      <c r="A533" s="2">
         <v>45443</v>
       </c>
       <c r="B533">
@@ -6291,7 +6293,7 @@
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A534" s="3">
+      <c r="A534" s="2">
         <v>45443</v>
       </c>
       <c r="B534">
@@ -6302,7 +6304,7 @@
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A535" s="3">
+      <c r="A535" s="2">
         <v>45443</v>
       </c>
       <c r="B535">
@@ -6313,7 +6315,7 @@
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A536" s="3">
+      <c r="A536" s="2">
         <v>45473</v>
       </c>
       <c r="B536">
@@ -6324,7 +6326,7 @@
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A537" s="3">
+      <c r="A537" s="2">
         <v>45473</v>
       </c>
       <c r="B537">
@@ -6335,7 +6337,7 @@
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A538" s="3">
+      <c r="A538" s="2">
         <v>45473</v>
       </c>
       <c r="B538">
@@ -6346,7 +6348,7 @@
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A539" s="3">
+      <c r="A539" s="2">
         <v>45473</v>
       </c>
       <c r="B539">
@@ -6357,7 +6359,7 @@
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A540" s="3">
+      <c r="A540" s="2">
         <v>45473</v>
       </c>
       <c r="B540">
@@ -6368,7 +6370,7 @@
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A541" s="3">
+      <c r="A541" s="2">
         <v>45473</v>
       </c>
       <c r="B541">
@@ -6379,7 +6381,7 @@
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A542" s="3">
+      <c r="A542" s="2">
         <v>45504</v>
       </c>
       <c r="B542">
@@ -6390,7 +6392,7 @@
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A543" s="3">
+      <c r="A543" s="2">
         <v>45504</v>
       </c>
       <c r="B543">
@@ -6401,7 +6403,7 @@
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A544" s="3">
+      <c r="A544" s="2">
         <v>45504</v>
       </c>
       <c r="B544">
@@ -6412,7 +6414,7 @@
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A545" s="3">
+      <c r="A545" s="2">
         <v>45504</v>
       </c>
       <c r="B545">
@@ -6423,7 +6425,7 @@
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A546" s="3">
+      <c r="A546" s="2">
         <v>45504</v>
       </c>
       <c r="B546">
@@ -6434,7 +6436,7 @@
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A547" s="3">
+      <c r="A547" s="2">
         <v>45504</v>
       </c>
       <c r="B547">
@@ -6445,7 +6447,7 @@
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A548" s="3">
+      <c r="A548" s="2">
         <v>45535</v>
       </c>
       <c r="B548">
@@ -6456,7 +6458,7 @@
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A549" s="3">
+      <c r="A549" s="2">
         <v>45535</v>
       </c>
       <c r="B549">
@@ -6467,7 +6469,7 @@
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A550" s="3">
+      <c r="A550" s="2">
         <v>45535</v>
       </c>
       <c r="B550">
@@ -6478,7 +6480,7 @@
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A551" s="3">
+      <c r="A551" s="2">
         <v>45535</v>
       </c>
       <c r="B551">
@@ -6489,7 +6491,7 @@
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A552" s="3">
+      <c r="A552" s="2">
         <v>45535</v>
       </c>
       <c r="B552">
@@ -6500,7 +6502,7 @@
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A553" s="3">
+      <c r="A553" s="2">
         <v>45535</v>
       </c>
       <c r="B553">
@@ -6511,7 +6513,7 @@
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A554" s="3">
+      <c r="A554" s="2">
         <v>45565</v>
       </c>
       <c r="B554">
@@ -6522,7 +6524,7 @@
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A555" s="3">
+      <c r="A555" s="2">
         <v>45565</v>
       </c>
       <c r="B555">
@@ -6533,7 +6535,7 @@
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A556" s="3">
+      <c r="A556" s="2">
         <v>45565</v>
       </c>
       <c r="B556">
@@ -6544,7 +6546,7 @@
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A557" s="3">
+      <c r="A557" s="2">
         <v>45565</v>
       </c>
       <c r="B557">
@@ -6555,7 +6557,7 @@
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A558" s="3">
+      <c r="A558" s="2">
         <v>45565</v>
       </c>
       <c r="B558">
@@ -6566,7 +6568,7 @@
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A559" s="3">
+      <c r="A559" s="2">
         <v>45565</v>
       </c>
       <c r="B559">
@@ -6577,7 +6579,7 @@
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A560" s="3">
+      <c r="A560" s="2">
         <v>45596</v>
       </c>
       <c r="B560">
@@ -6588,7 +6590,7 @@
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A561" s="3">
+      <c r="A561" s="2">
         <v>45596</v>
       </c>
       <c r="B561">
@@ -6599,7 +6601,7 @@
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A562" s="3">
+      <c r="A562" s="2">
         <v>45596</v>
       </c>
       <c r="B562">
@@ -6610,7 +6612,7 @@
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A563" s="3">
+      <c r="A563" s="2">
         <v>45596</v>
       </c>
       <c r="B563">
@@ -6621,7 +6623,7 @@
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A564" s="3">
+      <c r="A564" s="2">
         <v>45596</v>
       </c>
       <c r="B564">
@@ -6632,7 +6634,7 @@
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A565" s="3">
+      <c r="A565" s="2">
         <v>45596</v>
       </c>
       <c r="B565">
@@ -6643,7 +6645,7 @@
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A566" s="3">
+      <c r="A566" s="2">
         <v>45626</v>
       </c>
       <c r="B566">
@@ -6654,7 +6656,7 @@
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A567" s="3">
+      <c r="A567" s="2">
         <v>45626</v>
       </c>
       <c r="B567">
@@ -6665,7 +6667,7 @@
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A568" s="3">
+      <c r="A568" s="2">
         <v>45626</v>
       </c>
       <c r="B568">
@@ -6676,7 +6678,7 @@
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A569" s="3">
+      <c r="A569" s="2">
         <v>45626</v>
       </c>
       <c r="B569">
@@ -6687,7 +6689,7 @@
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A570" s="3">
+      <c r="A570" s="2">
         <v>45626</v>
       </c>
       <c r="B570">
@@ -6698,7 +6700,7 @@
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A571" s="3">
+      <c r="A571" s="2">
         <v>45626</v>
       </c>
       <c r="B571">
@@ -6709,7 +6711,7 @@
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A572" s="3">
+      <c r="A572" s="2">
         <v>45657</v>
       </c>
       <c r="B572">
@@ -6720,7 +6722,7 @@
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A573" s="3">
+      <c r="A573" s="2">
         <v>45657</v>
       </c>
       <c r="B573">
@@ -6731,7 +6733,7 @@
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A574" s="3">
+      <c r="A574" s="2">
         <v>45657</v>
       </c>
       <c r="B574">
@@ -6742,7 +6744,7 @@
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A575" s="3">
+      <c r="A575" s="2">
         <v>45657</v>
       </c>
       <c r="B575">
@@ -6753,7 +6755,7 @@
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A576" s="3">
+      <c r="A576" s="2">
         <v>45657</v>
       </c>
       <c r="B576">
@@ -6764,7 +6766,7 @@
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A577" s="3">
+      <c r="A577" s="2">
         <v>45657</v>
       </c>
       <c r="B577">
@@ -6775,7 +6777,7 @@
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A578" s="3">
+      <c r="A578" s="2">
         <v>44957</v>
       </c>
       <c r="B578">
@@ -6786,7 +6788,7 @@
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A579" s="3">
+      <c r="A579" s="2">
         <v>44957</v>
       </c>
       <c r="B579">
@@ -6797,7 +6799,7 @@
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A580" s="3">
+      <c r="A580" s="2">
         <v>44957</v>
       </c>
       <c r="B580">
@@ -6808,7 +6810,7 @@
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A581" s="3">
+      <c r="A581" s="2">
         <v>44957</v>
       </c>
       <c r="B581">
@@ -6819,7 +6821,7 @@
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A582" s="3">
+      <c r="A582" s="2">
         <v>44957</v>
       </c>
       <c r="B582">
@@ -6830,7 +6832,7 @@
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A583" s="3">
+      <c r="A583" s="2">
         <v>44957</v>
       </c>
       <c r="B583">
@@ -6841,7 +6843,7 @@
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A584" s="3">
+      <c r="A584" s="2">
         <v>44985</v>
       </c>
       <c r="B584">
@@ -6852,7 +6854,7 @@
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A585" s="3">
+      <c r="A585" s="2">
         <v>44985</v>
       </c>
       <c r="B585">
@@ -6863,7 +6865,7 @@
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A586" s="3">
+      <c r="A586" s="2">
         <v>44985</v>
       </c>
       <c r="B586">
@@ -6874,7 +6876,7 @@
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A587" s="3">
+      <c r="A587" s="2">
         <v>44985</v>
       </c>
       <c r="B587">
@@ -6885,7 +6887,7 @@
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A588" s="3">
+      <c r="A588" s="2">
         <v>44985</v>
       </c>
       <c r="B588">
@@ -6896,7 +6898,7 @@
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A589" s="3">
+      <c r="A589" s="2">
         <v>44985</v>
       </c>
       <c r="B589">
@@ -6907,7 +6909,7 @@
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A590" s="3">
+      <c r="A590" s="2">
         <v>45016</v>
       </c>
       <c r="B590">
@@ -6918,7 +6920,7 @@
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A591" s="3">
+      <c r="A591" s="2">
         <v>45016</v>
       </c>
       <c r="B591">
@@ -6929,7 +6931,7 @@
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A592" s="3">
+      <c r="A592" s="2">
         <v>45016</v>
       </c>
       <c r="B592">
@@ -6940,7 +6942,7 @@
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A593" s="3">
+      <c r="A593" s="2">
         <v>45016</v>
       </c>
       <c r="B593">
@@ -6951,7 +6953,7 @@
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A594" s="3">
+      <c r="A594" s="2">
         <v>45016</v>
       </c>
       <c r="B594">
@@ -6962,7 +6964,7 @@
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A595" s="3">
+      <c r="A595" s="2">
         <v>45016</v>
       </c>
       <c r="B595">
@@ -6973,7 +6975,7 @@
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A596" s="3">
+      <c r="A596" s="2">
         <v>45046</v>
       </c>
       <c r="B596">
@@ -6984,7 +6986,7 @@
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A597" s="3">
+      <c r="A597" s="2">
         <v>45046</v>
       </c>
       <c r="B597">
@@ -6995,7 +6997,7 @@
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A598" s="3">
+      <c r="A598" s="2">
         <v>45046</v>
       </c>
       <c r="B598">
@@ -7006,7 +7008,7 @@
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A599" s="3">
+      <c r="A599" s="2">
         <v>45046</v>
       </c>
       <c r="B599">
@@ -7017,7 +7019,7 @@
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A600" s="3">
+      <c r="A600" s="2">
         <v>45046</v>
       </c>
       <c r="B600">
@@ -7028,7 +7030,7 @@
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A601" s="3">
+      <c r="A601" s="2">
         <v>45046</v>
       </c>
       <c r="B601">
@@ -7039,7 +7041,7 @@
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A602" s="3">
+      <c r="A602" s="2">
         <v>45077</v>
       </c>
       <c r="B602">
@@ -7050,7 +7052,7 @@
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A603" s="3">
+      <c r="A603" s="2">
         <v>45077</v>
       </c>
       <c r="B603">
@@ -7061,7 +7063,7 @@
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A604" s="3">
+      <c r="A604" s="2">
         <v>45077</v>
       </c>
       <c r="B604">
@@ -7072,7 +7074,7 @@
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A605" s="3">
+      <c r="A605" s="2">
         <v>45077</v>
       </c>
       <c r="B605">
@@ -7083,7 +7085,7 @@
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A606" s="3">
+      <c r="A606" s="2">
         <v>45077</v>
       </c>
       <c r="B606">
@@ -7094,7 +7096,7 @@
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A607" s="3">
+      <c r="A607" s="2">
         <v>45077</v>
       </c>
       <c r="B607">
@@ -7105,7 +7107,7 @@
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A608" s="3">
+      <c r="A608" s="2">
         <v>45107</v>
       </c>
       <c r="B608">
@@ -7116,7 +7118,7 @@
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A609" s="3">
+      <c r="A609" s="2">
         <v>45107</v>
       </c>
       <c r="B609">
@@ -7127,7 +7129,7 @@
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A610" s="3">
+      <c r="A610" s="2">
         <v>45107</v>
       </c>
       <c r="B610">
@@ -7138,7 +7140,7 @@
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A611" s="3">
+      <c r="A611" s="2">
         <v>45107</v>
       </c>
       <c r="B611">
@@ -7149,7 +7151,7 @@
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A612" s="3">
+      <c r="A612" s="2">
         <v>45107</v>
       </c>
       <c r="B612">
@@ -7160,7 +7162,7 @@
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A613" s="3">
+      <c r="A613" s="2">
         <v>45107</v>
       </c>
       <c r="B613">
@@ -7171,7 +7173,7 @@
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A614" s="3">
+      <c r="A614" s="2">
         <v>45138</v>
       </c>
       <c r="B614">
@@ -7182,7 +7184,7 @@
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A615" s="3">
+      <c r="A615" s="2">
         <v>45138</v>
       </c>
       <c r="B615">
@@ -7193,7 +7195,7 @@
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A616" s="3">
+      <c r="A616" s="2">
         <v>45138</v>
       </c>
       <c r="B616">
@@ -7204,7 +7206,7 @@
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A617" s="3">
+      <c r="A617" s="2">
         <v>45138</v>
       </c>
       <c r="B617">
@@ -7215,7 +7217,7 @@
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A618" s="3">
+      <c r="A618" s="2">
         <v>45138</v>
       </c>
       <c r="B618">
@@ -7226,7 +7228,7 @@
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A619" s="3">
+      <c r="A619" s="2">
         <v>45138</v>
       </c>
       <c r="B619">
@@ -7237,7 +7239,7 @@
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A620" s="3">
+      <c r="A620" s="2">
         <v>45169</v>
       </c>
       <c r="B620">
@@ -7248,7 +7250,7 @@
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A621" s="3">
+      <c r="A621" s="2">
         <v>45169</v>
       </c>
       <c r="B621">
@@ -7259,7 +7261,7 @@
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A622" s="3">
+      <c r="A622" s="2">
         <v>45169</v>
       </c>
       <c r="B622">
@@ -7270,7 +7272,7 @@
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A623" s="3">
+      <c r="A623" s="2">
         <v>45169</v>
       </c>
       <c r="B623">
@@ -7281,7 +7283,7 @@
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A624" s="3">
+      <c r="A624" s="2">
         <v>45169</v>
       </c>
       <c r="B624">
@@ -7292,7 +7294,7 @@
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A625" s="3">
+      <c r="A625" s="2">
         <v>45169</v>
       </c>
       <c r="B625">
@@ -7303,7 +7305,7 @@
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A626" s="3">
+      <c r="A626" s="2">
         <v>45199</v>
       </c>
       <c r="B626">
@@ -7314,7 +7316,7 @@
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A627" s="3">
+      <c r="A627" s="2">
         <v>45199</v>
       </c>
       <c r="B627">
@@ -7325,7 +7327,7 @@
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A628" s="3">
+      <c r="A628" s="2">
         <v>45199</v>
       </c>
       <c r="B628">
@@ -7336,7 +7338,7 @@
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A629" s="3">
+      <c r="A629" s="2">
         <v>45199</v>
       </c>
       <c r="B629">
@@ -7347,7 +7349,7 @@
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A630" s="3">
+      <c r="A630" s="2">
         <v>45199</v>
       </c>
       <c r="B630">
@@ -7358,7 +7360,7 @@
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A631" s="3">
+      <c r="A631" s="2">
         <v>45199</v>
       </c>
       <c r="B631">
@@ -7369,7 +7371,7 @@
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A632" s="3">
+      <c r="A632" s="2">
         <v>45230</v>
       </c>
       <c r="B632">
@@ -7380,7 +7382,7 @@
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A633" s="3">
+      <c r="A633" s="2">
         <v>45230</v>
       </c>
       <c r="B633">
@@ -7391,7 +7393,7 @@
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A634" s="3">
+      <c r="A634" s="2">
         <v>45230</v>
       </c>
       <c r="B634">
@@ -7402,7 +7404,7 @@
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A635" s="3">
+      <c r="A635" s="2">
         <v>45230</v>
       </c>
       <c r="B635">
@@ -7413,7 +7415,7 @@
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A636" s="3">
+      <c r="A636" s="2">
         <v>45230</v>
       </c>
       <c r="B636">
@@ -7424,7 +7426,7 @@
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A637" s="3">
+      <c r="A637" s="2">
         <v>45230</v>
       </c>
       <c r="B637">
@@ -7435,7 +7437,7 @@
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A638" s="3">
+      <c r="A638" s="2">
         <v>45260</v>
       </c>
       <c r="B638">
@@ -7446,7 +7448,7 @@
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A639" s="3">
+      <c r="A639" s="2">
         <v>45260</v>
       </c>
       <c r="B639">
@@ -7457,7 +7459,7 @@
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A640" s="3">
+      <c r="A640" s="2">
         <v>45260</v>
       </c>
       <c r="B640">
@@ -7468,7 +7470,7 @@
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A641" s="3">
+      <c r="A641" s="2">
         <v>45260</v>
       </c>
       <c r="B641">
@@ -7479,7 +7481,7 @@
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A642" s="3">
+      <c r="A642" s="2">
         <v>45260</v>
       </c>
       <c r="B642">
@@ -7490,7 +7492,7 @@
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A643" s="3">
+      <c r="A643" s="2">
         <v>45260</v>
       </c>
       <c r="B643">
@@ -7501,7 +7503,7 @@
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A644" s="3">
+      <c r="A644" s="2">
         <v>45291</v>
       </c>
       <c r="B644">
@@ -7512,7 +7514,7 @@
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A645" s="3">
+      <c r="A645" s="2">
         <v>45291</v>
       </c>
       <c r="B645">
@@ -7523,7 +7525,7 @@
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A646" s="3">
+      <c r="A646" s="2">
         <v>45291</v>
       </c>
       <c r="B646">
@@ -7534,7 +7536,7 @@
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A647" s="3">
+      <c r="A647" s="2">
         <v>45291</v>
       </c>
       <c r="B647">
@@ -7545,7 +7547,7 @@
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A648" s="3">
+      <c r="A648" s="2">
         <v>45291</v>
       </c>
       <c r="B648">
@@ -7556,7 +7558,7 @@
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A649" s="3">
+      <c r="A649" s="2">
         <v>45291</v>
       </c>
       <c r="B649">
@@ -7567,7 +7569,7 @@
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A650" s="3">
+      <c r="A650" s="2">
         <v>45322</v>
       </c>
       <c r="B650">
@@ -7578,7 +7580,7 @@
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A651" s="3">
+      <c r="A651" s="2">
         <v>45322</v>
       </c>
       <c r="B651">
@@ -7589,7 +7591,7 @@
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A652" s="3">
+      <c r="A652" s="2">
         <v>45322</v>
       </c>
       <c r="B652">
@@ -7600,7 +7602,7 @@
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A653" s="3">
+      <c r="A653" s="2">
         <v>45322</v>
       </c>
       <c r="B653">
@@ -7611,7 +7613,7 @@
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A654" s="3">
+      <c r="A654" s="2">
         <v>45322</v>
       </c>
       <c r="B654">
@@ -7622,7 +7624,7 @@
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A655" s="3">
+      <c r="A655" s="2">
         <v>45322</v>
       </c>
       <c r="B655">
@@ -7633,7 +7635,7 @@
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A656" s="3">
+      <c r="A656" s="2">
         <v>45351</v>
       </c>
       <c r="B656">
@@ -7644,7 +7646,7 @@
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A657" s="3">
+      <c r="A657" s="2">
         <v>45351</v>
       </c>
       <c r="B657">
@@ -7655,7 +7657,7 @@
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A658" s="3">
+      <c r="A658" s="2">
         <v>45351</v>
       </c>
       <c r="B658">
@@ -7666,7 +7668,7 @@
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A659" s="3">
+      <c r="A659" s="2">
         <v>45351</v>
       </c>
       <c r="B659">
@@ -7677,7 +7679,7 @@
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A660" s="3">
+      <c r="A660" s="2">
         <v>45351</v>
       </c>
       <c r="B660">
@@ -7688,7 +7690,7 @@
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A661" s="3">
+      <c r="A661" s="2">
         <v>45351</v>
       </c>
       <c r="B661">
@@ -7699,7 +7701,7 @@
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A662" s="3">
+      <c r="A662" s="2">
         <v>45382</v>
       </c>
       <c r="B662">
@@ -7710,7 +7712,7 @@
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A663" s="3">
+      <c r="A663" s="2">
         <v>45382</v>
       </c>
       <c r="B663">
@@ -7721,7 +7723,7 @@
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A664" s="3">
+      <c r="A664" s="2">
         <v>45382</v>
       </c>
       <c r="B664">
@@ -7732,7 +7734,7 @@
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A665" s="3">
+      <c r="A665" s="2">
         <v>45382</v>
       </c>
       <c r="B665">
@@ -7743,7 +7745,7 @@
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A666" s="3">
+      <c r="A666" s="2">
         <v>45382</v>
       </c>
       <c r="B666">
@@ -7754,7 +7756,7 @@
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A667" s="3">
+      <c r="A667" s="2">
         <v>45382</v>
       </c>
       <c r="B667">
@@ -7765,7 +7767,7 @@
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A668" s="3">
+      <c r="A668" s="2">
         <v>45412</v>
       </c>
       <c r="B668">
@@ -7776,7 +7778,7 @@
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A669" s="3">
+      <c r="A669" s="2">
         <v>45412</v>
       </c>
       <c r="B669">
@@ -7787,7 +7789,7 @@
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A670" s="3">
+      <c r="A670" s="2">
         <v>45412</v>
       </c>
       <c r="B670">
@@ -7798,7 +7800,7 @@
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A671" s="3">
+      <c r="A671" s="2">
         <v>45412</v>
       </c>
       <c r="B671">
@@ -7809,7 +7811,7 @@
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A672" s="3">
+      <c r="A672" s="2">
         <v>45412</v>
       </c>
       <c r="B672">
@@ -7820,7 +7822,7 @@
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A673" s="3">
+      <c r="A673" s="2">
         <v>45412</v>
       </c>
       <c r="B673">
@@ -7831,7 +7833,7 @@
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A674" s="3">
+      <c r="A674" s="2">
         <v>45443</v>
       </c>
       <c r="B674">
@@ -7842,7 +7844,7 @@
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A675" s="3">
+      <c r="A675" s="2">
         <v>45443</v>
       </c>
       <c r="B675">
@@ -7853,7 +7855,7 @@
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A676" s="3">
+      <c r="A676" s="2">
         <v>45443</v>
       </c>
       <c r="B676">
@@ -7864,7 +7866,7 @@
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A677" s="3">
+      <c r="A677" s="2">
         <v>45443</v>
       </c>
       <c r="B677">
@@ -7875,7 +7877,7 @@
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A678" s="3">
+      <c r="A678" s="2">
         <v>45443</v>
       </c>
       <c r="B678">
@@ -7886,7 +7888,7 @@
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A679" s="3">
+      <c r="A679" s="2">
         <v>45443</v>
       </c>
       <c r="B679">
@@ -7897,7 +7899,7 @@
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A680" s="3">
+      <c r="A680" s="2">
         <v>45473</v>
       </c>
       <c r="B680">
@@ -7908,7 +7910,7 @@
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A681" s="3">
+      <c r="A681" s="2">
         <v>45473</v>
       </c>
       <c r="B681">
@@ -7919,7 +7921,7 @@
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A682" s="3">
+      <c r="A682" s="2">
         <v>45473</v>
       </c>
       <c r="B682">
@@ -7930,7 +7932,7 @@
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A683" s="3">
+      <c r="A683" s="2">
         <v>45473</v>
       </c>
       <c r="B683">
@@ -7941,7 +7943,7 @@
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A684" s="3">
+      <c r="A684" s="2">
         <v>45473</v>
       </c>
       <c r="B684">
@@ -7952,7 +7954,7 @@
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A685" s="3">
+      <c r="A685" s="2">
         <v>45473</v>
       </c>
       <c r="B685">
@@ -7963,7 +7965,7 @@
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A686" s="3">
+      <c r="A686" s="2">
         <v>45504</v>
       </c>
       <c r="B686">
@@ -7974,7 +7976,7 @@
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A687" s="3">
+      <c r="A687" s="2">
         <v>45504</v>
       </c>
       <c r="B687">
@@ -7985,7 +7987,7 @@
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A688" s="3">
+      <c r="A688" s="2">
         <v>45504</v>
       </c>
       <c r="B688">
@@ -7996,7 +7998,7 @@
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A689" s="3">
+      <c r="A689" s="2">
         <v>45504</v>
       </c>
       <c r="B689">
@@ -8007,7 +8009,7 @@
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A690" s="3">
+      <c r="A690" s="2">
         <v>45504</v>
       </c>
       <c r="B690">
@@ -8018,7 +8020,7 @@
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A691" s="3">
+      <c r="A691" s="2">
         <v>45504</v>
       </c>
       <c r="B691">
@@ -8029,7 +8031,7 @@
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A692" s="3">
+      <c r="A692" s="2">
         <v>45535</v>
       </c>
       <c r="B692">
@@ -8040,7 +8042,7 @@
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A693" s="3">
+      <c r="A693" s="2">
         <v>45535</v>
       </c>
       <c r="B693">
@@ -8051,7 +8053,7 @@
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A694" s="3">
+      <c r="A694" s="2">
         <v>45535</v>
       </c>
       <c r="B694">
@@ -8062,7 +8064,7 @@
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A695" s="3">
+      <c r="A695" s="2">
         <v>45535</v>
       </c>
       <c r="B695">
@@ -8073,7 +8075,7 @@
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A696" s="3">
+      <c r="A696" s="2">
         <v>45535</v>
       </c>
       <c r="B696">
@@ -8084,7 +8086,7 @@
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A697" s="3">
+      <c r="A697" s="2">
         <v>45535</v>
       </c>
       <c r="B697">
@@ -8095,7 +8097,7 @@
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A698" s="3">
+      <c r="A698" s="2">
         <v>45565</v>
       </c>
       <c r="B698">
@@ -8106,7 +8108,7 @@
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A699" s="3">
+      <c r="A699" s="2">
         <v>45565</v>
       </c>
       <c r="B699">
@@ -8117,7 +8119,7 @@
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A700" s="3">
+      <c r="A700" s="2">
         <v>45565</v>
       </c>
       <c r="B700">
@@ -8128,7 +8130,7 @@
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A701" s="3">
+      <c r="A701" s="2">
         <v>45565</v>
       </c>
       <c r="B701">
@@ -8139,7 +8141,7 @@
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A702" s="3">
+      <c r="A702" s="2">
         <v>45565</v>
       </c>
       <c r="B702">
@@ -8150,7 +8152,7 @@
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A703" s="3">
+      <c r="A703" s="2">
         <v>45565</v>
       </c>
       <c r="B703">
@@ -8161,7 +8163,7 @@
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A704" s="3">
+      <c r="A704" s="2">
         <v>45596</v>
       </c>
       <c r="B704">
@@ -8172,7 +8174,7 @@
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A705" s="3">
+      <c r="A705" s="2">
         <v>45596</v>
       </c>
       <c r="B705">
@@ -8183,7 +8185,7 @@
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A706" s="3">
+      <c r="A706" s="2">
         <v>45596</v>
       </c>
       <c r="B706">
@@ -8194,7 +8196,7 @@
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A707" s="3">
+      <c r="A707" s="2">
         <v>45596</v>
       </c>
       <c r="B707">
@@ -8205,7 +8207,7 @@
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A708" s="3">
+      <c r="A708" s="2">
         <v>45596</v>
       </c>
       <c r="B708">
@@ -8216,7 +8218,7 @@
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A709" s="3">
+      <c r="A709" s="2">
         <v>45596</v>
       </c>
       <c r="B709">
@@ -8227,7 +8229,7 @@
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A710" s="3">
+      <c r="A710" s="2">
         <v>45626</v>
       </c>
       <c r="B710">
@@ -8238,7 +8240,7 @@
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A711" s="3">
+      <c r="A711" s="2">
         <v>45626</v>
       </c>
       <c r="B711">
@@ -8249,7 +8251,7 @@
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A712" s="3">
+      <c r="A712" s="2">
         <v>45626</v>
       </c>
       <c r="B712">
@@ -8260,7 +8262,7 @@
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A713" s="3">
+      <c r="A713" s="2">
         <v>45626</v>
       </c>
       <c r="B713">
@@ -8271,7 +8273,7 @@
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A714" s="3">
+      <c r="A714" s="2">
         <v>45626</v>
       </c>
       <c r="B714">
@@ -8282,7 +8284,7 @@
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A715" s="3">
+      <c r="A715" s="2">
         <v>45626</v>
       </c>
       <c r="B715">
@@ -8293,7 +8295,7 @@
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A716" s="3">
+      <c r="A716" s="2">
         <v>45657</v>
       </c>
       <c r="B716">
@@ -8304,7 +8306,7 @@
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A717" s="3">
+      <c r="A717" s="2">
         <v>45657</v>
       </c>
       <c r="B717">
@@ -8315,7 +8317,7 @@
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A718" s="3">
+      <c r="A718" s="2">
         <v>45657</v>
       </c>
       <c r="B718">
@@ -8326,7 +8328,7 @@
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A719" s="3">
+      <c r="A719" s="2">
         <v>45657</v>
       </c>
       <c r="B719">
@@ -8337,7 +8339,7 @@
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A720" s="3">
+      <c r="A720" s="2">
         <v>45657</v>
       </c>
       <c r="B720">
@@ -8348,7 +8350,7 @@
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A721" s="3">
+      <c r="A721" s="2">
         <v>45657</v>
       </c>
       <c r="B721">
@@ -8359,7 +8361,7 @@
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A722" s="3">
+      <c r="A722" s="2">
         <v>44957</v>
       </c>
       <c r="B722">
@@ -8370,7 +8372,7 @@
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A723" s="3">
+      <c r="A723" s="2">
         <v>44957</v>
       </c>
       <c r="B723">
@@ -8381,7 +8383,7 @@
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A724" s="3">
+      <c r="A724" s="2">
         <v>44957</v>
       </c>
       <c r="B724">
@@ -8392,7 +8394,7 @@
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A725" s="3">
+      <c r="A725" s="2">
         <v>44957</v>
       </c>
       <c r="B725">
@@ -8403,7 +8405,7 @@
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A726" s="3">
+      <c r="A726" s="2">
         <v>44957</v>
       </c>
       <c r="B726">
@@ -8414,7 +8416,7 @@
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A727" s="3">
+      <c r="A727" s="2">
         <v>44957</v>
       </c>
       <c r="B727">
@@ -8425,7 +8427,7 @@
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A728" s="3">
+      <c r="A728" s="2">
         <v>44985</v>
       </c>
       <c r="B728">
@@ -8436,7 +8438,7 @@
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A729" s="3">
+      <c r="A729" s="2">
         <v>44985</v>
       </c>
       <c r="B729">
@@ -8447,7 +8449,7 @@
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A730" s="3">
+      <c r="A730" s="2">
         <v>44985</v>
       </c>
       <c r="B730">
@@ -8458,7 +8460,7 @@
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A731" s="3">
+      <c r="A731" s="2">
         <v>44985</v>
       </c>
       <c r="B731">
@@ -8469,7 +8471,7 @@
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A732" s="3">
+      <c r="A732" s="2">
         <v>44985</v>
       </c>
       <c r="B732">
@@ -8480,7 +8482,7 @@
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A733" s="3">
+      <c r="A733" s="2">
         <v>44985</v>
       </c>
       <c r="B733">
@@ -8491,7 +8493,7 @@
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A734" s="3">
+      <c r="A734" s="2">
         <v>45016</v>
       </c>
       <c r="B734">
@@ -8502,7 +8504,7 @@
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A735" s="3">
+      <c r="A735" s="2">
         <v>45016</v>
       </c>
       <c r="B735">
@@ -8513,7 +8515,7 @@
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A736" s="3">
+      <c r="A736" s="2">
         <v>45016</v>
       </c>
       <c r="B736">
@@ -8524,7 +8526,7 @@
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A737" s="3">
+      <c r="A737" s="2">
         <v>45016</v>
       </c>
       <c r="B737">
@@ -8535,7 +8537,7 @@
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A738" s="3">
+      <c r="A738" s="2">
         <v>45016</v>
       </c>
       <c r="B738">
@@ -8546,7 +8548,7 @@
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A739" s="3">
+      <c r="A739" s="2">
         <v>45016</v>
       </c>
       <c r="B739">
@@ -8557,7 +8559,7 @@
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A740" s="3">
+      <c r="A740" s="2">
         <v>45046</v>
       </c>
       <c r="B740">
@@ -8568,7 +8570,7 @@
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A741" s="3">
+      <c r="A741" s="2">
         <v>45046</v>
       </c>
       <c r="B741">
@@ -8579,7 +8581,7 @@
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A742" s="3">
+      <c r="A742" s="2">
         <v>45046</v>
       </c>
       <c r="B742">
@@ -8590,7 +8592,7 @@
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A743" s="3">
+      <c r="A743" s="2">
         <v>45046</v>
       </c>
       <c r="B743">
@@ -8601,7 +8603,7 @@
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A744" s="3">
+      <c r="A744" s="2">
         <v>45046</v>
       </c>
       <c r="B744">
@@ -8612,7 +8614,7 @@
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A745" s="3">
+      <c r="A745" s="2">
         <v>45046</v>
       </c>
       <c r="B745">
@@ -8623,7 +8625,7 @@
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A746" s="3">
+      <c r="A746" s="2">
         <v>45077</v>
       </c>
       <c r="B746">
@@ -8634,7 +8636,7 @@
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A747" s="3">
+      <c r="A747" s="2">
         <v>45077</v>
       </c>
       <c r="B747">
@@ -8645,7 +8647,7 @@
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A748" s="3">
+      <c r="A748" s="2">
         <v>45077</v>
       </c>
       <c r="B748">
@@ -8656,7 +8658,7 @@
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A749" s="3">
+      <c r="A749" s="2">
         <v>45077</v>
       </c>
       <c r="B749">
@@ -8667,7 +8669,7 @@
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A750" s="3">
+      <c r="A750" s="2">
         <v>45077</v>
       </c>
       <c r="B750">
@@ -8678,7 +8680,7 @@
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A751" s="3">
+      <c r="A751" s="2">
         <v>45077</v>
       </c>
       <c r="B751">
@@ -8689,7 +8691,7 @@
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A752" s="3">
+      <c r="A752" s="2">
         <v>45107</v>
       </c>
       <c r="B752">
@@ -8700,7 +8702,7 @@
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A753" s="3">
+      <c r="A753" s="2">
         <v>45107</v>
       </c>
       <c r="B753">
@@ -8711,7 +8713,7 @@
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A754" s="3">
+      <c r="A754" s="2">
         <v>45107</v>
       </c>
       <c r="B754">
@@ -8722,7 +8724,7 @@
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A755" s="3">
+      <c r="A755" s="2">
         <v>45107</v>
       </c>
       <c r="B755">
@@ -8733,7 +8735,7 @@
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A756" s="3">
+      <c r="A756" s="2">
         <v>45107</v>
       </c>
       <c r="B756">
@@ -8744,7 +8746,7 @@
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A757" s="3">
+      <c r="A757" s="2">
         <v>45107</v>
       </c>
       <c r="B757">
@@ -8755,7 +8757,7 @@
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A758" s="3">
+      <c r="A758" s="2">
         <v>45138</v>
       </c>
       <c r="B758">
@@ -8766,7 +8768,7 @@
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A759" s="3">
+      <c r="A759" s="2">
         <v>45138</v>
       </c>
       <c r="B759">
@@ -8777,7 +8779,7 @@
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A760" s="3">
+      <c r="A760" s="2">
         <v>45138</v>
       </c>
       <c r="B760">
@@ -8788,7 +8790,7 @@
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A761" s="3">
+      <c r="A761" s="2">
         <v>45138</v>
       </c>
       <c r="B761">
@@ -8799,7 +8801,7 @@
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A762" s="3">
+      <c r="A762" s="2">
         <v>45138</v>
       </c>
       <c r="B762">
@@ -8810,7 +8812,7 @@
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A763" s="3">
+      <c r="A763" s="2">
         <v>45138</v>
       </c>
       <c r="B763">
@@ -8821,7 +8823,7 @@
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A764" s="3">
+      <c r="A764" s="2">
         <v>45169</v>
       </c>
       <c r="B764">
@@ -8832,7 +8834,7 @@
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A765" s="3">
+      <c r="A765" s="2">
         <v>45169</v>
       </c>
       <c r="B765">
@@ -8843,7 +8845,7 @@
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A766" s="3">
+      <c r="A766" s="2">
         <v>45169</v>
       </c>
       <c r="B766">
@@ -8854,7 +8856,7 @@
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A767" s="3">
+      <c r="A767" s="2">
         <v>45169</v>
       </c>
       <c r="B767">
@@ -8865,7 +8867,7 @@
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A768" s="3">
+      <c r="A768" s="2">
         <v>45169</v>
       </c>
       <c r="B768">
@@ -8876,7 +8878,7 @@
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A769" s="3">
+      <c r="A769" s="2">
         <v>45169</v>
       </c>
       <c r="B769">
@@ -8887,7 +8889,7 @@
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A770" s="3">
+      <c r="A770" s="2">
         <v>45199</v>
       </c>
       <c r="B770">
@@ -8898,7 +8900,7 @@
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A771" s="3">
+      <c r="A771" s="2">
         <v>45199</v>
       </c>
       <c r="B771">
@@ -8909,7 +8911,7 @@
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A772" s="3">
+      <c r="A772" s="2">
         <v>45199</v>
       </c>
       <c r="B772">
@@ -8920,7 +8922,7 @@
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A773" s="3">
+      <c r="A773" s="2">
         <v>45199</v>
       </c>
       <c r="B773">
@@ -8931,7 +8933,7 @@
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A774" s="3">
+      <c r="A774" s="2">
         <v>45199</v>
       </c>
       <c r="B774">
@@ -8942,7 +8944,7 @@
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A775" s="3">
+      <c r="A775" s="2">
         <v>45199</v>
       </c>
       <c r="B775">
@@ -8953,7 +8955,7 @@
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A776" s="3">
+      <c r="A776" s="2">
         <v>45230</v>
       </c>
       <c r="B776">
@@ -8964,7 +8966,7 @@
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A777" s="3">
+      <c r="A777" s="2">
         <v>45230</v>
       </c>
       <c r="B777">
@@ -8975,7 +8977,7 @@
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A778" s="3">
+      <c r="A778" s="2">
         <v>45230</v>
       </c>
       <c r="B778">
@@ -8986,7 +8988,7 @@
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A779" s="3">
+      <c r="A779" s="2">
         <v>45230</v>
       </c>
       <c r="B779">
@@ -8997,7 +8999,7 @@
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A780" s="3">
+      <c r="A780" s="2">
         <v>45230</v>
       </c>
       <c r="B780">
@@ -9008,7 +9010,7 @@
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A781" s="3">
+      <c r="A781" s="2">
         <v>45230</v>
       </c>
       <c r="B781">
@@ -9019,7 +9021,7 @@
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A782" s="3">
+      <c r="A782" s="2">
         <v>45260</v>
       </c>
       <c r="B782">
@@ -9030,7 +9032,7 @@
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A783" s="3">
+      <c r="A783" s="2">
         <v>45260</v>
       </c>
       <c r="B783">
@@ -9041,7 +9043,7 @@
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A784" s="3">
+      <c r="A784" s="2">
         <v>45260</v>
       </c>
       <c r="B784">
@@ -9052,7 +9054,7 @@
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A785" s="3">
+      <c r="A785" s="2">
         <v>45260</v>
       </c>
       <c r="B785">
@@ -9063,7 +9065,7 @@
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A786" s="3">
+      <c r="A786" s="2">
         <v>45260</v>
       </c>
       <c r="B786">
@@ -9074,7 +9076,7 @@
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A787" s="3">
+      <c r="A787" s="2">
         <v>45260</v>
       </c>
       <c r="B787">
@@ -9085,7 +9087,7 @@
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A788" s="3">
+      <c r="A788" s="2">
         <v>45291</v>
       </c>
       <c r="B788">
@@ -9096,7 +9098,7 @@
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A789" s="3">
+      <c r="A789" s="2">
         <v>45291</v>
       </c>
       <c r="B789">
@@ -9107,7 +9109,7 @@
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A790" s="3">
+      <c r="A790" s="2">
         <v>45291</v>
       </c>
       <c r="B790">
@@ -9118,7 +9120,7 @@
       </c>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A791" s="3">
+      <c r="A791" s="2">
         <v>45291</v>
       </c>
       <c r="B791">
@@ -9129,7 +9131,7 @@
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A792" s="3">
+      <c r="A792" s="2">
         <v>45291</v>
       </c>
       <c r="B792">
@@ -9140,7 +9142,7 @@
       </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A793" s="3">
+      <c r="A793" s="2">
         <v>45291</v>
       </c>
       <c r="B793">
@@ -9151,7 +9153,7 @@
       </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A794" s="3">
+      <c r="A794" s="2">
         <v>45322</v>
       </c>
       <c r="B794">
@@ -9162,7 +9164,7 @@
       </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A795" s="3">
+      <c r="A795" s="2">
         <v>45322</v>
       </c>
       <c r="B795">
@@ -9173,7 +9175,7 @@
       </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A796" s="3">
+      <c r="A796" s="2">
         <v>45322</v>
       </c>
       <c r="B796">
@@ -9184,7 +9186,7 @@
       </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A797" s="3">
+      <c r="A797" s="2">
         <v>45322</v>
       </c>
       <c r="B797">
@@ -9195,7 +9197,7 @@
       </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A798" s="3">
+      <c r="A798" s="2">
         <v>45322</v>
       </c>
       <c r="B798">
@@ -9206,7 +9208,7 @@
       </c>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A799" s="3">
+      <c r="A799" s="2">
         <v>45322</v>
       </c>
       <c r="B799">
@@ -9217,7 +9219,7 @@
       </c>
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A800" s="3">
+      <c r="A800" s="2">
         <v>45351</v>
       </c>
       <c r="B800">
@@ -9228,7 +9230,7 @@
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A801" s="3">
+      <c r="A801" s="2">
         <v>45351</v>
       </c>
       <c r="B801">
@@ -9239,7 +9241,7 @@
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A802" s="3">
+      <c r="A802" s="2">
         <v>45351</v>
       </c>
       <c r="B802">
@@ -9250,7 +9252,7 @@
       </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A803" s="3">
+      <c r="A803" s="2">
         <v>45351</v>
       </c>
       <c r="B803">
@@ -9261,7 +9263,7 @@
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A804" s="3">
+      <c r="A804" s="2">
         <v>45351</v>
       </c>
       <c r="B804">
@@ -9272,7 +9274,7 @@
       </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A805" s="3">
+      <c r="A805" s="2">
         <v>45351</v>
       </c>
       <c r="B805">
@@ -9283,7 +9285,7 @@
       </c>
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A806" s="3">
+      <c r="A806" s="2">
         <v>45382</v>
       </c>
       <c r="B806">
@@ -9294,7 +9296,7 @@
       </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A807" s="3">
+      <c r="A807" s="2">
         <v>45382</v>
       </c>
       <c r="B807">
@@ -9305,7 +9307,7 @@
       </c>
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A808" s="3">
+      <c r="A808" s="2">
         <v>45382</v>
       </c>
       <c r="B808">
@@ -9316,7 +9318,7 @@
       </c>
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A809" s="3">
+      <c r="A809" s="2">
         <v>45382</v>
       </c>
       <c r="B809">
@@ -9327,7 +9329,7 @@
       </c>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A810" s="3">
+      <c r="A810" s="2">
         <v>45382</v>
       </c>
       <c r="B810">
@@ -9338,7 +9340,7 @@
       </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A811" s="3">
+      <c r="A811" s="2">
         <v>45382</v>
       </c>
       <c r="B811">
@@ -9349,7 +9351,7 @@
       </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A812" s="3">
+      <c r="A812" s="2">
         <v>45412</v>
       </c>
       <c r="B812">
@@ -9360,7 +9362,7 @@
       </c>
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A813" s="3">
+      <c r="A813" s="2">
         <v>45412</v>
       </c>
       <c r="B813">
@@ -9371,7 +9373,7 @@
       </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A814" s="3">
+      <c r="A814" s="2">
         <v>45412</v>
       </c>
       <c r="B814">
@@ -9382,7 +9384,7 @@
       </c>
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A815" s="3">
+      <c r="A815" s="2">
         <v>45412</v>
       </c>
       <c r="B815">
@@ -9393,7 +9395,7 @@
       </c>
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A816" s="3">
+      <c r="A816" s="2">
         <v>45412</v>
       </c>
       <c r="B816">
@@ -9404,7 +9406,7 @@
       </c>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A817" s="3">
+      <c r="A817" s="2">
         <v>45412</v>
       </c>
       <c r="B817">
@@ -9415,7 +9417,7 @@
       </c>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A818" s="3">
+      <c r="A818" s="2">
         <v>45443</v>
       </c>
       <c r="B818">
@@ -9426,7 +9428,7 @@
       </c>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A819" s="3">
+      <c r="A819" s="2">
         <v>45443</v>
       </c>
       <c r="B819">
@@ -9437,7 +9439,7 @@
       </c>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A820" s="3">
+      <c r="A820" s="2">
         <v>45443</v>
       </c>
       <c r="B820">
@@ -9448,7 +9450,7 @@
       </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A821" s="3">
+      <c r="A821" s="2">
         <v>45443</v>
       </c>
       <c r="B821">
@@ -9459,7 +9461,7 @@
       </c>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A822" s="3">
+      <c r="A822" s="2">
         <v>45443</v>
       </c>
       <c r="B822">
@@ -9470,7 +9472,7 @@
       </c>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A823" s="3">
+      <c r="A823" s="2">
         <v>45443</v>
       </c>
       <c r="B823">
@@ -9481,7 +9483,7 @@
       </c>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A824" s="3">
+      <c r="A824" s="2">
         <v>45473</v>
       </c>
       <c r="B824">
@@ -9492,7 +9494,7 @@
       </c>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A825" s="3">
+      <c r="A825" s="2">
         <v>45473</v>
       </c>
       <c r="B825">
@@ -9503,7 +9505,7 @@
       </c>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A826" s="3">
+      <c r="A826" s="2">
         <v>45473</v>
       </c>
       <c r="B826">
@@ -9514,7 +9516,7 @@
       </c>
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A827" s="3">
+      <c r="A827" s="2">
         <v>45473</v>
       </c>
       <c r="B827">
@@ -9525,7 +9527,7 @@
       </c>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A828" s="3">
+      <c r="A828" s="2">
         <v>45473</v>
       </c>
       <c r="B828">
@@ -9536,7 +9538,7 @@
       </c>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A829" s="3">
+      <c r="A829" s="2">
         <v>45473</v>
       </c>
       <c r="B829">
@@ -9547,7 +9549,7 @@
       </c>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A830" s="3">
+      <c r="A830" s="2">
         <v>45504</v>
       </c>
       <c r="B830">
@@ -9558,7 +9560,7 @@
       </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A831" s="3">
+      <c r="A831" s="2">
         <v>45504</v>
       </c>
       <c r="B831">
@@ -9569,7 +9571,7 @@
       </c>
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A832" s="3">
+      <c r="A832" s="2">
         <v>45504</v>
       </c>
       <c r="B832">
@@ -9580,7 +9582,7 @@
       </c>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A833" s="3">
+      <c r="A833" s="2">
         <v>45504</v>
       </c>
       <c r="B833">
@@ -9591,7 +9593,7 @@
       </c>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A834" s="3">
+      <c r="A834" s="2">
         <v>45504</v>
       </c>
       <c r="B834">
@@ -9602,7 +9604,7 @@
       </c>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A835" s="3">
+      <c r="A835" s="2">
         <v>45504</v>
       </c>
       <c r="B835">
@@ -9613,7 +9615,7 @@
       </c>
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A836" s="3">
+      <c r="A836" s="2">
         <v>45535</v>
       </c>
       <c r="B836">
@@ -9624,7 +9626,7 @@
       </c>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A837" s="3">
+      <c r="A837" s="2">
         <v>45535</v>
       </c>
       <c r="B837">
@@ -9635,7 +9637,7 @@
       </c>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A838" s="3">
+      <c r="A838" s="2">
         <v>45535</v>
       </c>
       <c r="B838">
@@ -9646,7 +9648,7 @@
       </c>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A839" s="3">
+      <c r="A839" s="2">
         <v>45535</v>
       </c>
       <c r="B839">
@@ -9657,7 +9659,7 @@
       </c>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A840" s="3">
+      <c r="A840" s="2">
         <v>45535</v>
       </c>
       <c r="B840">
@@ -9668,7 +9670,7 @@
       </c>
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A841" s="3">
+      <c r="A841" s="2">
         <v>45535</v>
       </c>
       <c r="B841">
@@ -9679,7 +9681,7 @@
       </c>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A842" s="3">
+      <c r="A842" s="2">
         <v>45565</v>
       </c>
       <c r="B842">
@@ -9690,7 +9692,7 @@
       </c>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A843" s="3">
+      <c r="A843" s="2">
         <v>45565</v>
       </c>
       <c r="B843">
@@ -9701,7 +9703,7 @@
       </c>
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A844" s="3">
+      <c r="A844" s="2">
         <v>45565</v>
       </c>
       <c r="B844">
@@ -9712,7 +9714,7 @@
       </c>
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A845" s="3">
+      <c r="A845" s="2">
         <v>45565</v>
       </c>
       <c r="B845">
@@ -9723,7 +9725,7 @@
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A846" s="3">
+      <c r="A846" s="2">
         <v>45565</v>
       </c>
       <c r="B846">
@@ -9734,7 +9736,7 @@
       </c>
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A847" s="3">
+      <c r="A847" s="2">
         <v>45565</v>
       </c>
       <c r="B847">
@@ -9745,7 +9747,7 @@
       </c>
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A848" s="3">
+      <c r="A848" s="2">
         <v>45596</v>
       </c>
       <c r="B848">
@@ -9756,7 +9758,7 @@
       </c>
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A849" s="3">
+      <c r="A849" s="2">
         <v>45596</v>
       </c>
       <c r="B849">
@@ -9767,7 +9769,7 @@
       </c>
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A850" s="3">
+      <c r="A850" s="2">
         <v>45596</v>
       </c>
       <c r="B850">
@@ -9778,7 +9780,7 @@
       </c>
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A851" s="3">
+      <c r="A851" s="2">
         <v>45596</v>
       </c>
       <c r="B851">
@@ -9789,7 +9791,7 @@
       </c>
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A852" s="3">
+      <c r="A852" s="2">
         <v>45596</v>
       </c>
       <c r="B852">
@@ -9800,7 +9802,7 @@
       </c>
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A853" s="3">
+      <c r="A853" s="2">
         <v>45596</v>
       </c>
       <c r="B853">
@@ -9811,7 +9813,7 @@
       </c>
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A854" s="3">
+      <c r="A854" s="2">
         <v>45626</v>
       </c>
       <c r="B854">
@@ -9822,7 +9824,7 @@
       </c>
     </row>
     <row r="855" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A855" s="3">
+      <c r="A855" s="2">
         <v>45626</v>
       </c>
       <c r="B855">
@@ -9833,7 +9835,7 @@
       </c>
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A856" s="3">
+      <c r="A856" s="2">
         <v>45626</v>
       </c>
       <c r="B856">
@@ -9844,7 +9846,7 @@
       </c>
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A857" s="3">
+      <c r="A857" s="2">
         <v>45626</v>
       </c>
       <c r="B857">
@@ -9855,7 +9857,7 @@
       </c>
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A858" s="3">
+      <c r="A858" s="2">
         <v>45626</v>
       </c>
       <c r="B858">
@@ -9866,7 +9868,7 @@
       </c>
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A859" s="3">
+      <c r="A859" s="2">
         <v>45626</v>
       </c>
       <c r="B859">
@@ -9877,7 +9879,7 @@
       </c>
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A860" s="3">
+      <c r="A860" s="2">
         <v>45657</v>
       </c>
       <c r="B860">
@@ -9888,7 +9890,7 @@
       </c>
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A861" s="3">
+      <c r="A861" s="2">
         <v>45657</v>
       </c>
       <c r="B861">
@@ -9899,7 +9901,7 @@
       </c>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A862" s="3">
+      <c r="A862" s="2">
         <v>45657</v>
       </c>
       <c r="B862">
@@ -9910,7 +9912,7 @@
       </c>
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A863" s="3">
+      <c r="A863" s="2">
         <v>45657</v>
       </c>
       <c r="B863">
@@ -9921,7 +9923,7 @@
       </c>
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A864" s="3">
+      <c r="A864" s="2">
         <v>45657</v>
       </c>
       <c r="B864">
@@ -9932,7 +9934,7 @@
       </c>
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A865" s="3">
+      <c r="A865" s="2">
         <v>45657</v>
       </c>
       <c r="B865">
@@ -9943,7 +9945,7 @@
       </c>
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A866" s="3">
+      <c r="A866" s="2">
         <v>44957</v>
       </c>
       <c r="B866">
@@ -9954,7 +9956,7 @@
       </c>
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A867" s="3">
+      <c r="A867" s="2">
         <v>44957</v>
       </c>
       <c r="B867">
@@ -9965,7 +9967,7 @@
       </c>
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A868" s="3">
+      <c r="A868" s="2">
         <v>44957</v>
       </c>
       <c r="B868">
@@ -9976,7 +9978,7 @@
       </c>
     </row>
     <row r="869" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A869" s="3">
+      <c r="A869" s="2">
         <v>44957</v>
       </c>
       <c r="B869">
@@ -9987,7 +9989,7 @@
       </c>
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A870" s="3">
+      <c r="A870" s="2">
         <v>44957</v>
       </c>
       <c r="B870">
@@ -9998,7 +10000,7 @@
       </c>
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A871" s="3">
+      <c r="A871" s="2">
         <v>44957</v>
       </c>
       <c r="B871">
@@ -10009,7 +10011,7 @@
       </c>
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A872" s="3">
+      <c r="A872" s="2">
         <v>44985</v>
       </c>
       <c r="B872">
@@ -10020,7 +10022,7 @@
       </c>
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A873" s="3">
+      <c r="A873" s="2">
         <v>44985</v>
       </c>
       <c r="B873">
@@ -10031,7 +10033,7 @@
       </c>
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A874" s="3">
+      <c r="A874" s="2">
         <v>44985</v>
       </c>
       <c r="B874">
@@ -10042,7 +10044,7 @@
       </c>
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A875" s="3">
+      <c r="A875" s="2">
         <v>44985</v>
       </c>
       <c r="B875">
@@ -10053,7 +10055,7 @@
       </c>
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A876" s="3">
+      <c r="A876" s="2">
         <v>44985</v>
       </c>
       <c r="B876">
@@ -10064,7 +10066,7 @@
       </c>
     </row>
     <row r="877" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A877" s="3">
+      <c r="A877" s="2">
         <v>44985</v>
       </c>
       <c r="B877">
@@ -10075,7 +10077,7 @@
       </c>
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A878" s="3">
+      <c r="A878" s="2">
         <v>45016</v>
       </c>
       <c r="B878">
@@ -10086,7 +10088,7 @@
       </c>
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A879" s="3">
+      <c r="A879" s="2">
         <v>45016</v>
       </c>
       <c r="B879">
@@ -10097,7 +10099,7 @@
       </c>
     </row>
     <row r="880" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A880" s="3">
+      <c r="A880" s="2">
         <v>45016</v>
       </c>
       <c r="B880">
@@ -10108,7 +10110,7 @@
       </c>
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A881" s="3">
+      <c r="A881" s="2">
         <v>45016</v>
       </c>
       <c r="B881">
@@ -10119,7 +10121,7 @@
       </c>
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A882" s="3">
+      <c r="A882" s="2">
         <v>45016</v>
       </c>
       <c r="B882">
@@ -10130,7 +10132,7 @@
       </c>
     </row>
     <row r="883" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A883" s="3">
+      <c r="A883" s="2">
         <v>45016</v>
       </c>
       <c r="B883">
@@ -10141,7 +10143,7 @@
       </c>
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A884" s="3">
+      <c r="A884" s="2">
         <v>45046</v>
       </c>
       <c r="B884">
@@ -10152,7 +10154,7 @@
       </c>
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A885" s="3">
+      <c r="A885" s="2">
         <v>45046</v>
       </c>
       <c r="B885">
@@ -10163,7 +10165,7 @@
       </c>
     </row>
     <row r="886" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A886" s="3">
+      <c r="A886" s="2">
         <v>45046</v>
       </c>
       <c r="B886">
@@ -10174,7 +10176,7 @@
       </c>
     </row>
     <row r="887" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A887" s="3">
+      <c r="A887" s="2">
         <v>45046</v>
       </c>
       <c r="B887">
@@ -10185,7 +10187,7 @@
       </c>
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A888" s="3">
+      <c r="A888" s="2">
         <v>45046</v>
       </c>
       <c r="B888">
@@ -10196,7 +10198,7 @@
       </c>
     </row>
     <row r="889" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A889" s="3">
+      <c r="A889" s="2">
         <v>45046</v>
       </c>
       <c r="B889">
@@ -10207,7 +10209,7 @@
       </c>
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A890" s="3">
+      <c r="A890" s="2">
         <v>45077</v>
       </c>
       <c r="B890">
@@ -10218,7 +10220,7 @@
       </c>
     </row>
     <row r="891" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A891" s="3">
+      <c r="A891" s="2">
         <v>45077</v>
       </c>
       <c r="B891">
@@ -10229,7 +10231,7 @@
       </c>
     </row>
     <row r="892" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A892" s="3">
+      <c r="A892" s="2">
         <v>45077</v>
       </c>
       <c r="B892">
@@ -10240,7 +10242,7 @@
       </c>
     </row>
     <row r="893" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A893" s="3">
+      <c r="A893" s="2">
         <v>45077</v>
       </c>
       <c r="B893">
@@ -10251,7 +10253,7 @@
       </c>
     </row>
     <row r="894" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A894" s="3">
+      <c r="A894" s="2">
         <v>45077</v>
       </c>
       <c r="B894">
@@ -10262,7 +10264,7 @@
       </c>
     </row>
     <row r="895" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A895" s="3">
+      <c r="A895" s="2">
         <v>45077</v>
       </c>
       <c r="B895">
@@ -10273,7 +10275,7 @@
       </c>
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A896" s="3">
+      <c r="A896" s="2">
         <v>45107</v>
       </c>
       <c r="B896">
@@ -10284,7 +10286,7 @@
       </c>
     </row>
     <row r="897" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A897" s="3">
+      <c r="A897" s="2">
         <v>45107</v>
       </c>
       <c r="B897">
@@ -10295,7 +10297,7 @@
       </c>
     </row>
     <row r="898" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A898" s="3">
+      <c r="A898" s="2">
         <v>45107</v>
       </c>
       <c r="B898">
@@ -10306,7 +10308,7 @@
       </c>
     </row>
     <row r="899" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A899" s="3">
+      <c r="A899" s="2">
         <v>45107</v>
       </c>
       <c r="B899">
@@ -10317,7 +10319,7 @@
       </c>
     </row>
     <row r="900" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A900" s="3">
+      <c r="A900" s="2">
         <v>45107</v>
       </c>
       <c r="B900">
@@ -10328,7 +10330,7 @@
       </c>
     </row>
     <row r="901" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A901" s="3">
+      <c r="A901" s="2">
         <v>45107</v>
       </c>
       <c r="B901">
@@ -10339,7 +10341,7 @@
       </c>
     </row>
     <row r="902" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A902" s="3">
+      <c r="A902" s="2">
         <v>45138</v>
       </c>
       <c r="B902">
@@ -10350,7 +10352,7 @@
       </c>
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A903" s="3">
+      <c r="A903" s="2">
         <v>45138</v>
       </c>
       <c r="B903">
@@ -10361,7 +10363,7 @@
       </c>
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A904" s="3">
+      <c r="A904" s="2">
         <v>45138</v>
       </c>
       <c r="B904">
@@ -10372,7 +10374,7 @@
       </c>
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A905" s="3">
+      <c r="A905" s="2">
         <v>45138</v>
       </c>
       <c r="B905">
@@ -10383,7 +10385,7 @@
       </c>
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A906" s="3">
+      <c r="A906" s="2">
         <v>45138</v>
       </c>
       <c r="B906">
@@ -10394,7 +10396,7 @@
       </c>
     </row>
     <row r="907" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A907" s="3">
+      <c r="A907" s="2">
         <v>45138</v>
       </c>
       <c r="B907">
@@ -10405,7 +10407,7 @@
       </c>
     </row>
     <row r="908" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A908" s="3">
+      <c r="A908" s="2">
         <v>45169</v>
       </c>
       <c r="B908">
@@ -10416,7 +10418,7 @@
       </c>
     </row>
     <row r="909" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A909" s="3">
+      <c r="A909" s="2">
         <v>45169</v>
       </c>
       <c r="B909">
@@ -10427,7 +10429,7 @@
       </c>
     </row>
     <row r="910" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A910" s="3">
+      <c r="A910" s="2">
         <v>45169</v>
       </c>
       <c r="B910">
@@ -10438,7 +10440,7 @@
       </c>
     </row>
     <row r="911" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A911" s="3">
+      <c r="A911" s="2">
         <v>45169</v>
       </c>
       <c r="B911">
@@ -10449,7 +10451,7 @@
       </c>
     </row>
     <row r="912" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A912" s="3">
+      <c r="A912" s="2">
         <v>45169</v>
       </c>
       <c r="B912">
@@ -10460,7 +10462,7 @@
       </c>
     </row>
     <row r="913" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A913" s="3">
+      <c r="A913" s="2">
         <v>45169</v>
       </c>
       <c r="B913">
@@ -10471,7 +10473,7 @@
       </c>
     </row>
     <row r="914" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A914" s="3">
+      <c r="A914" s="2">
         <v>45199</v>
       </c>
       <c r="B914">
@@ -10482,7 +10484,7 @@
       </c>
     </row>
     <row r="915" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A915" s="3">
+      <c r="A915" s="2">
         <v>45199</v>
       </c>
       <c r="B915">
@@ -10493,7 +10495,7 @@
       </c>
     </row>
     <row r="916" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A916" s="3">
+      <c r="A916" s="2">
         <v>45199</v>
       </c>
       <c r="B916">
@@ -10504,7 +10506,7 @@
       </c>
     </row>
     <row r="917" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A917" s="3">
+      <c r="A917" s="2">
         <v>45199</v>
       </c>
       <c r="B917">
@@ -10515,7 +10517,7 @@
       </c>
     </row>
     <row r="918" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A918" s="3">
+      <c r="A918" s="2">
         <v>45199</v>
       </c>
       <c r="B918">
@@ -10526,7 +10528,7 @@
       </c>
     </row>
     <row r="919" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A919" s="3">
+      <c r="A919" s="2">
         <v>45199</v>
       </c>
       <c r="B919">
@@ -10537,7 +10539,7 @@
       </c>
     </row>
     <row r="920" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A920" s="3">
+      <c r="A920" s="2">
         <v>45230</v>
       </c>
       <c r="B920">
@@ -10548,7 +10550,7 @@
       </c>
     </row>
     <row r="921" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A921" s="3">
+      <c r="A921" s="2">
         <v>45230</v>
       </c>
       <c r="B921">
@@ -10559,7 +10561,7 @@
       </c>
     </row>
     <row r="922" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A922" s="3">
+      <c r="A922" s="2">
         <v>45230</v>
       </c>
       <c r="B922">
@@ -10570,7 +10572,7 @@
       </c>
     </row>
     <row r="923" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A923" s="3">
+      <c r="A923" s="2">
         <v>45230</v>
       </c>
       <c r="B923">
@@ -10581,7 +10583,7 @@
       </c>
     </row>
     <row r="924" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A924" s="3">
+      <c r="A924" s="2">
         <v>45230</v>
       </c>
       <c r="B924">
@@ -10592,7 +10594,7 @@
       </c>
     </row>
     <row r="925" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A925" s="3">
+      <c r="A925" s="2">
         <v>45230</v>
       </c>
       <c r="B925">
@@ -10603,7 +10605,7 @@
       </c>
     </row>
     <row r="926" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A926" s="3">
+      <c r="A926" s="2">
         <v>45260</v>
       </c>
       <c r="B926">
@@ -10614,7 +10616,7 @@
       </c>
     </row>
     <row r="927" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A927" s="3">
+      <c r="A927" s="2">
         <v>45260</v>
       </c>
       <c r="B927">
@@ -10625,7 +10627,7 @@
       </c>
     </row>
     <row r="928" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A928" s="3">
+      <c r="A928" s="2">
         <v>45260</v>
       </c>
       <c r="B928">
@@ -10636,7 +10638,7 @@
       </c>
     </row>
     <row r="929" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A929" s="3">
+      <c r="A929" s="2">
         <v>45260</v>
       </c>
       <c r="B929">
@@ -10647,7 +10649,7 @@
       </c>
     </row>
     <row r="930" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A930" s="3">
+      <c r="A930" s="2">
         <v>45260</v>
       </c>
       <c r="B930">
@@ -10658,7 +10660,7 @@
       </c>
     </row>
     <row r="931" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A931" s="3">
+      <c r="A931" s="2">
         <v>45260</v>
       </c>
       <c r="B931">
@@ -10669,7 +10671,7 @@
       </c>
     </row>
     <row r="932" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A932" s="3">
+      <c r="A932" s="2">
         <v>45291</v>
       </c>
       <c r="B932">
@@ -10680,7 +10682,7 @@
       </c>
     </row>
     <row r="933" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A933" s="3">
+      <c r="A933" s="2">
         <v>45291</v>
       </c>
       <c r="B933">
@@ -10691,7 +10693,7 @@
       </c>
     </row>
     <row r="934" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A934" s="3">
+      <c r="A934" s="2">
         <v>45291</v>
       </c>
       <c r="B934">
@@ -10702,7 +10704,7 @@
       </c>
     </row>
     <row r="935" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A935" s="3">
+      <c r="A935" s="2">
         <v>45291</v>
       </c>
       <c r="B935">
@@ -10713,7 +10715,7 @@
       </c>
     </row>
     <row r="936" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A936" s="3">
+      <c r="A936" s="2">
         <v>45291</v>
       </c>
       <c r="B936">
@@ -10724,7 +10726,7 @@
       </c>
     </row>
     <row r="937" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A937" s="3">
+      <c r="A937" s="2">
         <v>45291</v>
       </c>
       <c r="B937">
@@ -10735,7 +10737,7 @@
       </c>
     </row>
     <row r="938" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A938" s="3">
+      <c r="A938" s="2">
         <v>45322</v>
       </c>
       <c r="B938">
@@ -10746,7 +10748,7 @@
       </c>
     </row>
     <row r="939" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A939" s="3">
+      <c r="A939" s="2">
         <v>45322</v>
       </c>
       <c r="B939">
@@ -10757,7 +10759,7 @@
       </c>
     </row>
     <row r="940" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A940" s="3">
+      <c r="A940" s="2">
         <v>45322</v>
       </c>
       <c r="B940">
@@ -10768,7 +10770,7 @@
       </c>
     </row>
     <row r="941" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A941" s="3">
+      <c r="A941" s="2">
         <v>45322</v>
       </c>
       <c r="B941">
@@ -10779,7 +10781,7 @@
       </c>
     </row>
     <row r="942" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A942" s="3">
+      <c r="A942" s="2">
         <v>45322</v>
       </c>
       <c r="B942">
@@ -10790,7 +10792,7 @@
       </c>
     </row>
     <row r="943" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A943" s="3">
+      <c r="A943" s="2">
         <v>45322</v>
       </c>
       <c r="B943">
@@ -10801,7 +10803,7 @@
       </c>
     </row>
     <row r="944" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A944" s="3">
+      <c r="A944" s="2">
         <v>45351</v>
       </c>
       <c r="B944">
@@ -10812,7 +10814,7 @@
       </c>
     </row>
     <row r="945" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A945" s="3">
+      <c r="A945" s="2">
         <v>45351</v>
       </c>
       <c r="B945">
@@ -10823,7 +10825,7 @@
       </c>
     </row>
     <row r="946" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A946" s="3">
+      <c r="A946" s="2">
         <v>45351</v>
       </c>
       <c r="B946">
@@ -10834,7 +10836,7 @@
       </c>
     </row>
     <row r="947" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A947" s="3">
+      <c r="A947" s="2">
         <v>45351</v>
       </c>
       <c r="B947">
@@ -10845,7 +10847,7 @@
       </c>
     </row>
     <row r="948" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A948" s="3">
+      <c r="A948" s="2">
         <v>45351</v>
       </c>
       <c r="B948">
@@ -10856,7 +10858,7 @@
       </c>
     </row>
     <row r="949" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A949" s="3">
+      <c r="A949" s="2">
         <v>45351</v>
       </c>
       <c r="B949">
@@ -10867,7 +10869,7 @@
       </c>
     </row>
     <row r="950" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A950" s="3">
+      <c r="A950" s="2">
         <v>45382</v>
       </c>
       <c r="B950">
@@ -10878,7 +10880,7 @@
       </c>
     </row>
     <row r="951" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A951" s="3">
+      <c r="A951" s="2">
         <v>45382</v>
       </c>
       <c r="B951">
@@ -10889,7 +10891,7 @@
       </c>
     </row>
     <row r="952" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A952" s="3">
+      <c r="A952" s="2">
         <v>45382</v>
       </c>
       <c r="B952">
@@ -10900,7 +10902,7 @@
       </c>
     </row>
     <row r="953" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A953" s="3">
+      <c r="A953" s="2">
         <v>45382</v>
       </c>
       <c r="B953">
@@ -10911,7 +10913,7 @@
       </c>
     </row>
     <row r="954" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A954" s="3">
+      <c r="A954" s="2">
         <v>45382</v>
       </c>
       <c r="B954">
@@ -10922,7 +10924,7 @@
       </c>
     </row>
     <row r="955" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A955" s="3">
+      <c r="A955" s="2">
         <v>45382</v>
       </c>
       <c r="B955">
@@ -10933,7 +10935,7 @@
       </c>
     </row>
     <row r="956" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A956" s="3">
+      <c r="A956" s="2">
         <v>45412</v>
       </c>
       <c r="B956">
@@ -10944,7 +10946,7 @@
       </c>
     </row>
     <row r="957" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A957" s="3">
+      <c r="A957" s="2">
         <v>45412</v>
       </c>
       <c r="B957">
@@ -10955,7 +10957,7 @@
       </c>
     </row>
     <row r="958" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A958" s="3">
+      <c r="A958" s="2">
         <v>45412</v>
       </c>
       <c r="B958">
@@ -10966,7 +10968,7 @@
       </c>
     </row>
     <row r="959" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A959" s="3">
+      <c r="A959" s="2">
         <v>45412</v>
       </c>
       <c r="B959">
@@ -10977,7 +10979,7 @@
       </c>
     </row>
     <row r="960" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A960" s="3">
+      <c r="A960" s="2">
         <v>45412</v>
       </c>
       <c r="B960">
@@ -10988,7 +10990,7 @@
       </c>
     </row>
     <row r="961" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A961" s="3">
+      <c r="A961" s="2">
         <v>45412</v>
       </c>
       <c r="B961">
@@ -10999,7 +11001,7 @@
       </c>
     </row>
     <row r="962" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A962" s="3">
+      <c r="A962" s="2">
         <v>45443</v>
       </c>
       <c r="B962">
@@ -11010,7 +11012,7 @@
       </c>
     </row>
     <row r="963" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A963" s="3">
+      <c r="A963" s="2">
         <v>45443</v>
       </c>
       <c r="B963">
@@ -11021,7 +11023,7 @@
       </c>
     </row>
     <row r="964" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A964" s="3">
+      <c r="A964" s="2">
         <v>45443</v>
       </c>
       <c r="B964">
@@ -11032,7 +11034,7 @@
       </c>
     </row>
     <row r="965" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A965" s="3">
+      <c r="A965" s="2">
         <v>45443</v>
       </c>
       <c r="B965">
@@ -11043,7 +11045,7 @@
       </c>
     </row>
     <row r="966" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A966" s="3">
+      <c r="A966" s="2">
         <v>45443</v>
       </c>
       <c r="B966">
@@ -11054,7 +11056,7 @@
       </c>
     </row>
     <row r="967" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A967" s="3">
+      <c r="A967" s="2">
         <v>45443</v>
       </c>
       <c r="B967">
@@ -11065,7 +11067,7 @@
       </c>
     </row>
     <row r="968" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A968" s="3">
+      <c r="A968" s="2">
         <v>45473</v>
       </c>
       <c r="B968">
@@ -11076,7 +11078,7 @@
       </c>
     </row>
     <row r="969" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A969" s="3">
+      <c r="A969" s="2">
         <v>45473</v>
       </c>
       <c r="B969">
@@ -11087,7 +11089,7 @@
       </c>
     </row>
     <row r="970" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A970" s="3">
+      <c r="A970" s="2">
         <v>45473</v>
       </c>
       <c r="B970">
@@ -11098,7 +11100,7 @@
       </c>
     </row>
     <row r="971" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A971" s="3">
+      <c r="A971" s="2">
         <v>45473</v>
       </c>
       <c r="B971">
@@ -11109,7 +11111,7 @@
       </c>
     </row>
     <row r="972" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A972" s="3">
+      <c r="A972" s="2">
         <v>45473</v>
       </c>
       <c r="B972">
@@ -11120,7 +11122,7 @@
       </c>
     </row>
     <row r="973" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A973" s="3">
+      <c r="A973" s="2">
         <v>45473</v>
       </c>
       <c r="B973">
@@ -11131,7 +11133,7 @@
       </c>
     </row>
     <row r="974" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A974" s="3">
+      <c r="A974" s="2">
         <v>45504</v>
       </c>
       <c r="B974">
@@ -11142,7 +11144,7 @@
       </c>
     </row>
     <row r="975" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A975" s="3">
+      <c r="A975" s="2">
         <v>45504</v>
       </c>
       <c r="B975">
@@ -11153,7 +11155,7 @@
       </c>
     </row>
     <row r="976" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A976" s="3">
+      <c r="A976" s="2">
         <v>45504</v>
       </c>
       <c r="B976">
@@ -11164,7 +11166,7 @@
       </c>
     </row>
     <row r="977" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A977" s="3">
+      <c r="A977" s="2">
         <v>45504</v>
       </c>
       <c r="B977">
@@ -11175,7 +11177,7 @@
       </c>
     </row>
     <row r="978" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A978" s="3">
+      <c r="A978" s="2">
         <v>45504</v>
       </c>
       <c r="B978">
@@ -11186,7 +11188,7 @@
       </c>
     </row>
     <row r="979" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A979" s="3">
+      <c r="A979" s="2">
         <v>45504</v>
       </c>
       <c r="B979">
@@ -11197,7 +11199,7 @@
       </c>
     </row>
     <row r="980" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A980" s="3">
+      <c r="A980" s="2">
         <v>45535</v>
       </c>
       <c r="B980">
@@ -11208,7 +11210,7 @@
       </c>
     </row>
     <row r="981" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A981" s="3">
+      <c r="A981" s="2">
         <v>45535</v>
       </c>
       <c r="B981">
@@ -11219,7 +11221,7 @@
       </c>
     </row>
     <row r="982" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A982" s="3">
+      <c r="A982" s="2">
         <v>45535</v>
       </c>
       <c r="B982">
@@ -11230,7 +11232,7 @@
       </c>
     </row>
     <row r="983" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A983" s="3">
+      <c r="A983" s="2">
         <v>45535</v>
       </c>
       <c r="B983">
@@ -11241,7 +11243,7 @@
       </c>
     </row>
     <row r="984" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A984" s="3">
+      <c r="A984" s="2">
         <v>45535</v>
       </c>
       <c r="B984">
@@ -11252,7 +11254,7 @@
       </c>
     </row>
     <row r="985" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A985" s="3">
+      <c r="A985" s="2">
         <v>45535</v>
       </c>
       <c r="B985">
@@ -11263,7 +11265,7 @@
       </c>
     </row>
     <row r="986" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A986" s="3">
+      <c r="A986" s="2">
         <v>45565</v>
       </c>
       <c r="B986">
@@ -11274,7 +11276,7 @@
       </c>
     </row>
     <row r="987" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A987" s="3">
+      <c r="A987" s="2">
         <v>45565</v>
       </c>
       <c r="B987">
@@ -11285,7 +11287,7 @@
       </c>
     </row>
     <row r="988" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A988" s="3">
+      <c r="A988" s="2">
         <v>45565</v>
       </c>
       <c r="B988">
@@ -11296,7 +11298,7 @@
       </c>
     </row>
     <row r="989" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A989" s="3">
+      <c r="A989" s="2">
         <v>45565</v>
       </c>
       <c r="B989">
@@ -11307,7 +11309,7 @@
       </c>
     </row>
     <row r="990" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A990" s="3">
+      <c r="A990" s="2">
         <v>45565</v>
       </c>
       <c r="B990">
@@ -11318,7 +11320,7 @@
       </c>
     </row>
     <row r="991" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A991" s="3">
+      <c r="A991" s="2">
         <v>45565</v>
       </c>
       <c r="B991">
@@ -11329,7 +11331,7 @@
       </c>
     </row>
     <row r="992" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A992" s="3">
+      <c r="A992" s="2">
         <v>45596</v>
       </c>
       <c r="B992">
@@ -11340,7 +11342,7 @@
       </c>
     </row>
     <row r="993" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A993" s="3">
+      <c r="A993" s="2">
         <v>45596</v>
       </c>
       <c r="B993">
@@ -11351,7 +11353,7 @@
       </c>
     </row>
     <row r="994" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A994" s="3">
+      <c r="A994" s="2">
         <v>45596</v>
       </c>
       <c r="B994">
@@ -11362,7 +11364,7 @@
       </c>
     </row>
     <row r="995" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A995" s="3">
+      <c r="A995" s="2">
         <v>45596</v>
       </c>
       <c r="B995">
@@ -11373,7 +11375,7 @@
       </c>
     </row>
     <row r="996" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A996" s="3">
+      <c r="A996" s="2">
         <v>45596</v>
       </c>
       <c r="B996">
@@ -11384,7 +11386,7 @@
       </c>
     </row>
     <row r="997" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A997" s="3">
+      <c r="A997" s="2">
         <v>45596</v>
       </c>
       <c r="B997">
@@ -11395,7 +11397,7 @@
       </c>
     </row>
     <row r="998" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A998" s="3">
+      <c r="A998" s="2">
         <v>45626</v>
       </c>
       <c r="B998">
@@ -11406,7 +11408,7 @@
       </c>
     </row>
     <row r="999" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A999" s="3">
+      <c r="A999" s="2">
         <v>45626</v>
       </c>
       <c r="B999">
@@ -11417,7 +11419,7 @@
       </c>
     </row>
     <row r="1000" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1000" s="3">
+      <c r="A1000" s="2">
         <v>45626</v>
       </c>
       <c r="B1000">
@@ -11428,7 +11430,7 @@
       </c>
     </row>
     <row r="1001" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1001" s="3">
+      <c r="A1001" s="2">
         <v>45626</v>
       </c>
       <c r="B1001">
@@ -11439,7 +11441,7 @@
       </c>
     </row>
     <row r="1002" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1002" s="3">
+      <c r="A1002" s="2">
         <v>45626</v>
       </c>
       <c r="B1002">
@@ -11450,7 +11452,7 @@
       </c>
     </row>
     <row r="1003" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1003" s="3">
+      <c r="A1003" s="2">
         <v>45626</v>
       </c>
       <c r="B1003">
@@ -11461,7 +11463,7 @@
       </c>
     </row>
     <row r="1004" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1004" s="3">
+      <c r="A1004" s="2">
         <v>45657</v>
       </c>
       <c r="B1004">
@@ -11472,7 +11474,7 @@
       </c>
     </row>
     <row r="1005" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1005" s="3">
+      <c r="A1005" s="2">
         <v>45657</v>
       </c>
       <c r="B1005">
@@ -11483,7 +11485,7 @@
       </c>
     </row>
     <row r="1006" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1006" s="3">
+      <c r="A1006" s="2">
         <v>45657</v>
       </c>
       <c r="B1006">
@@ -11494,7 +11496,7 @@
       </c>
     </row>
     <row r="1007" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1007" s="3">
+      <c r="A1007" s="2">
         <v>45657</v>
       </c>
       <c r="B1007">
@@ -11505,7 +11507,7 @@
       </c>
     </row>
     <row r="1008" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1008" s="3">
+      <c r="A1008" s="2">
         <v>45657</v>
       </c>
       <c r="B1008">
@@ -11516,7 +11518,7 @@
       </c>
     </row>
     <row r="1009" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1009" s="3">
+      <c r="A1009" s="2">
         <v>45657</v>
       </c>
       <c r="B1009">
@@ -11527,7 +11529,7 @@
       </c>
     </row>
     <row r="1010" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1010" s="3">
+      <c r="A1010" s="2">
         <v>44957</v>
       </c>
       <c r="B1010">
@@ -11538,7 +11540,7 @@
       </c>
     </row>
     <row r="1011" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1011" s="3">
+      <c r="A1011" s="2">
         <v>44957</v>
       </c>
       <c r="B1011">
@@ -11549,7 +11551,7 @@
       </c>
     </row>
     <row r="1012" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1012" s="3">
+      <c r="A1012" s="2">
         <v>44957</v>
       </c>
       <c r="B1012">
@@ -11560,7 +11562,7 @@
       </c>
     </row>
     <row r="1013" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1013" s="3">
+      <c r="A1013" s="2">
         <v>44957</v>
       </c>
       <c r="B1013">
@@ -11571,7 +11573,7 @@
       </c>
     </row>
     <row r="1014" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1014" s="3">
+      <c r="A1014" s="2">
         <v>44957</v>
       </c>
       <c r="B1014">
@@ -11582,7 +11584,7 @@
       </c>
     </row>
     <row r="1015" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1015" s="3">
+      <c r="A1015" s="2">
         <v>44957</v>
       </c>
       <c r="B1015">
@@ -11593,7 +11595,7 @@
       </c>
     </row>
     <row r="1016" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1016" s="3">
+      <c r="A1016" s="2">
         <v>44985</v>
       </c>
       <c r="B1016">
@@ -11604,7 +11606,7 @@
       </c>
     </row>
     <row r="1017" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1017" s="3">
+      <c r="A1017" s="2">
         <v>44985</v>
       </c>
       <c r="B1017">
@@ -11615,7 +11617,7 @@
       </c>
     </row>
     <row r="1018" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1018" s="3">
+      <c r="A1018" s="2">
         <v>44985</v>
       </c>
       <c r="B1018">
@@ -11626,7 +11628,7 @@
       </c>
     </row>
     <row r="1019" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1019" s="3">
+      <c r="A1019" s="2">
         <v>44985</v>
       </c>
       <c r="B1019">
@@ -11637,7 +11639,7 @@
       </c>
     </row>
     <row r="1020" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1020" s="3">
+      <c r="A1020" s="2">
         <v>44985</v>
       </c>
       <c r="B1020">
@@ -11648,7 +11650,7 @@
       </c>
     </row>
     <row r="1021" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1021" s="3">
+      <c r="A1021" s="2">
         <v>44985</v>
       </c>
       <c r="B1021">
@@ -11659,7 +11661,7 @@
       </c>
     </row>
     <row r="1022" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1022" s="3">
+      <c r="A1022" s="2">
         <v>45016</v>
       </c>
       <c r="B1022">
@@ -11670,7 +11672,7 @@
       </c>
     </row>
     <row r="1023" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1023" s="3">
+      <c r="A1023" s="2">
         <v>45016</v>
       </c>
       <c r="B1023">
@@ -11681,7 +11683,7 @@
       </c>
     </row>
     <row r="1024" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1024" s="3">
+      <c r="A1024" s="2">
         <v>45016</v>
       </c>
       <c r="B1024">
@@ -11692,7 +11694,7 @@
       </c>
     </row>
     <row r="1025" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1025" s="3">
+      <c r="A1025" s="2">
         <v>45016</v>
       </c>
       <c r="B1025">
@@ -11703,7 +11705,7 @@
       </c>
     </row>
     <row r="1026" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1026" s="3">
+      <c r="A1026" s="2">
         <v>45016</v>
       </c>
       <c r="B1026">
@@ -11714,7 +11716,7 @@
       </c>
     </row>
     <row r="1027" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1027" s="3">
+      <c r="A1027" s="2">
         <v>45016</v>
       </c>
       <c r="B1027">
@@ -11725,7 +11727,7 @@
       </c>
     </row>
     <row r="1028" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1028" s="3">
+      <c r="A1028" s="2">
         <v>45046</v>
       </c>
       <c r="B1028">
@@ -11736,7 +11738,7 @@
       </c>
     </row>
     <row r="1029" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1029" s="3">
+      <c r="A1029" s="2">
         <v>45046</v>
       </c>
       <c r="B1029">
@@ -11747,7 +11749,7 @@
       </c>
     </row>
     <row r="1030" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1030" s="3">
+      <c r="A1030" s="2">
         <v>45046</v>
       </c>
       <c r="B1030">
@@ -11758,7 +11760,7 @@
       </c>
     </row>
     <row r="1031" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1031" s="3">
+      <c r="A1031" s="2">
         <v>45046</v>
       </c>
       <c r="B1031">
@@ -11769,7 +11771,7 @@
       </c>
     </row>
     <row r="1032" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1032" s="3">
+      <c r="A1032" s="2">
         <v>45046</v>
       </c>
       <c r="B1032">
@@ -11780,7 +11782,7 @@
       </c>
     </row>
     <row r="1033" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1033" s="3">
+      <c r="A1033" s="2">
         <v>45046</v>
       </c>
       <c r="B1033">
@@ -11791,7 +11793,7 @@
       </c>
     </row>
     <row r="1034" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1034" s="3">
+      <c r="A1034" s="2">
         <v>45077</v>
       </c>
       <c r="B1034">
@@ -11802,7 +11804,7 @@
       </c>
     </row>
     <row r="1035" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1035" s="3">
+      <c r="A1035" s="2">
         <v>45077</v>
       </c>
       <c r="B1035">
@@ -11813,7 +11815,7 @@
       </c>
     </row>
     <row r="1036" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1036" s="3">
+      <c r="A1036" s="2">
         <v>45077</v>
       </c>
       <c r="B1036">
@@ -11824,7 +11826,7 @@
       </c>
     </row>
     <row r="1037" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1037" s="3">
+      <c r="A1037" s="2">
         <v>45077</v>
       </c>
       <c r="B1037">
@@ -11835,7 +11837,7 @@
       </c>
     </row>
     <row r="1038" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1038" s="3">
+      <c r="A1038" s="2">
         <v>45077</v>
       </c>
       <c r="B1038">
@@ -11846,7 +11848,7 @@
       </c>
     </row>
     <row r="1039" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1039" s="3">
+      <c r="A1039" s="2">
         <v>45077</v>
       </c>
       <c r="B1039">
@@ -11857,7 +11859,7 @@
       </c>
     </row>
     <row r="1040" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1040" s="3">
+      <c r="A1040" s="2">
         <v>45107</v>
       </c>
       <c r="B1040">
@@ -11868,7 +11870,7 @@
       </c>
     </row>
     <row r="1041" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1041" s="3">
+      <c r="A1041" s="2">
         <v>45107</v>
       </c>
       <c r="B1041">
@@ -11879,7 +11881,7 @@
       </c>
     </row>
     <row r="1042" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1042" s="3">
+      <c r="A1042" s="2">
         <v>45107</v>
       </c>
       <c r="B1042">
@@ -11890,7 +11892,7 @@
       </c>
     </row>
     <row r="1043" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1043" s="3">
+      <c r="A1043" s="2">
         <v>45107</v>
       </c>
       <c r="B1043">
@@ -11901,7 +11903,7 @@
       </c>
     </row>
     <row r="1044" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1044" s="3">
+      <c r="A1044" s="2">
         <v>45107</v>
       </c>
       <c r="B1044">
@@ -11912,7 +11914,7 @@
       </c>
     </row>
     <row r="1045" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1045" s="3">
+      <c r="A1045" s="2">
         <v>45107</v>
       </c>
       <c r="B1045">
@@ -11923,7 +11925,7 @@
       </c>
     </row>
     <row r="1046" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1046" s="3">
+      <c r="A1046" s="2">
         <v>45138</v>
       </c>
       <c r="B1046">
@@ -11934,7 +11936,7 @@
       </c>
     </row>
     <row r="1047" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1047" s="3">
+      <c r="A1047" s="2">
         <v>45138</v>
       </c>
       <c r="B1047">
@@ -11945,7 +11947,7 @@
       </c>
     </row>
     <row r="1048" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1048" s="3">
+      <c r="A1048" s="2">
         <v>45138</v>
       </c>
       <c r="B1048">
@@ -11956,7 +11958,7 @@
       </c>
     </row>
     <row r="1049" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1049" s="3">
+      <c r="A1049" s="2">
         <v>45138</v>
       </c>
       <c r="B1049">
@@ -11967,7 +11969,7 @@
       </c>
     </row>
     <row r="1050" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1050" s="3">
+      <c r="A1050" s="2">
         <v>45138</v>
       </c>
       <c r="B1050">
@@ -11978,7 +11980,7 @@
       </c>
     </row>
     <row r="1051" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1051" s="3">
+      <c r="A1051" s="2">
         <v>45138</v>
       </c>
       <c r="B1051">
@@ -11989,7 +11991,7 @@
       </c>
     </row>
     <row r="1052" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1052" s="3">
+      <c r="A1052" s="2">
         <v>45169</v>
       </c>
       <c r="B1052">
@@ -12000,7 +12002,7 @@
       </c>
     </row>
     <row r="1053" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1053" s="3">
+      <c r="A1053" s="2">
         <v>45169</v>
       </c>
       <c r="B1053">
@@ -12011,7 +12013,7 @@
       </c>
     </row>
     <row r="1054" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1054" s="3">
+      <c r="A1054" s="2">
         <v>45169</v>
       </c>
       <c r="B1054">
@@ -12022,7 +12024,7 @@
       </c>
     </row>
     <row r="1055" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1055" s="3">
+      <c r="A1055" s="2">
         <v>45169</v>
       </c>
       <c r="B1055">
@@ -12033,7 +12035,7 @@
       </c>
     </row>
     <row r="1056" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1056" s="3">
+      <c r="A1056" s="2">
         <v>45169</v>
       </c>
       <c r="B1056">
@@ -12044,7 +12046,7 @@
       </c>
     </row>
     <row r="1057" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1057" s="3">
+      <c r="A1057" s="2">
         <v>45169</v>
       </c>
       <c r="B1057">
@@ -12055,7 +12057,7 @@
       </c>
     </row>
     <row r="1058" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1058" s="3">
+      <c r="A1058" s="2">
         <v>45199</v>
       </c>
       <c r="B1058">
@@ -12066,7 +12068,7 @@
       </c>
     </row>
     <row r="1059" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1059" s="3">
+      <c r="A1059" s="2">
         <v>45199</v>
       </c>
       <c r="B1059">
@@ -12077,7 +12079,7 @@
       </c>
     </row>
     <row r="1060" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1060" s="3">
+      <c r="A1060" s="2">
         <v>45199</v>
       </c>
       <c r="B1060">
@@ -12088,7 +12090,7 @@
       </c>
     </row>
     <row r="1061" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1061" s="3">
+      <c r="A1061" s="2">
         <v>45199</v>
       </c>
       <c r="B1061">
@@ -12099,7 +12101,7 @@
       </c>
     </row>
     <row r="1062" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1062" s="3">
+      <c r="A1062" s="2">
         <v>45199</v>
       </c>
       <c r="B1062">
@@ -12110,7 +12112,7 @@
       </c>
     </row>
     <row r="1063" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1063" s="3">
+      <c r="A1063" s="2">
         <v>45199</v>
       </c>
       <c r="B1063">
@@ -12121,7 +12123,7 @@
       </c>
     </row>
     <row r="1064" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1064" s="3">
+      <c r="A1064" s="2">
         <v>45230</v>
       </c>
       <c r="B1064">
@@ -12132,7 +12134,7 @@
       </c>
     </row>
     <row r="1065" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1065" s="3">
+      <c r="A1065" s="2">
         <v>45230</v>
       </c>
       <c r="B1065">
@@ -12143,7 +12145,7 @@
       </c>
     </row>
     <row r="1066" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1066" s="3">
+      <c r="A1066" s="2">
         <v>45230</v>
       </c>
       <c r="B1066">
@@ -12154,7 +12156,7 @@
       </c>
     </row>
     <row r="1067" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1067" s="3">
+      <c r="A1067" s="2">
         <v>45230</v>
       </c>
       <c r="B1067">
@@ -12165,7 +12167,7 @@
       </c>
     </row>
     <row r="1068" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1068" s="3">
+      <c r="A1068" s="2">
         <v>45230</v>
       </c>
       <c r="B1068">
@@ -12176,7 +12178,7 @@
       </c>
     </row>
     <row r="1069" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1069" s="3">
+      <c r="A1069" s="2">
         <v>45230</v>
       </c>
       <c r="B1069">
@@ -12187,7 +12189,7 @@
       </c>
     </row>
     <row r="1070" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1070" s="3">
+      <c r="A1070" s="2">
         <v>45260</v>
       </c>
       <c r="B1070">
@@ -12198,7 +12200,7 @@
       </c>
     </row>
     <row r="1071" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1071" s="3">
+      <c r="A1071" s="2">
         <v>45260</v>
       </c>
       <c r="B1071">
@@ -12209,7 +12211,7 @@
       </c>
     </row>
     <row r="1072" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1072" s="3">
+      <c r="A1072" s="2">
         <v>45260</v>
       </c>
       <c r="B1072">
@@ -12220,7 +12222,7 @@
       </c>
     </row>
     <row r="1073" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1073" s="3">
+      <c r="A1073" s="2">
         <v>45260</v>
       </c>
       <c r="B1073">
@@ -12231,7 +12233,7 @@
       </c>
     </row>
     <row r="1074" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1074" s="3">
+      <c r="A1074" s="2">
         <v>45260</v>
       </c>
       <c r="B1074">
@@ -12242,7 +12244,7 @@
       </c>
     </row>
     <row r="1075" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1075" s="3">
+      <c r="A1075" s="2">
         <v>45260</v>
       </c>
       <c r="B1075">
@@ -12253,7 +12255,7 @@
       </c>
     </row>
     <row r="1076" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1076" s="3">
+      <c r="A1076" s="2">
         <v>45291</v>
       </c>
       <c r="B1076">
@@ -12264,7 +12266,7 @@
       </c>
     </row>
     <row r="1077" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1077" s="3">
+      <c r="A1077" s="2">
         <v>45291</v>
       </c>
       <c r="B1077">
@@ -12275,7 +12277,7 @@
       </c>
     </row>
     <row r="1078" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1078" s="3">
+      <c r="A1078" s="2">
         <v>45291</v>
       </c>
       <c r="B1078">
@@ -12286,7 +12288,7 @@
       </c>
     </row>
     <row r="1079" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1079" s="3">
+      <c r="A1079" s="2">
         <v>45291</v>
       </c>
       <c r="B1079">
@@ -12297,7 +12299,7 @@
       </c>
     </row>
     <row r="1080" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1080" s="3">
+      <c r="A1080" s="2">
         <v>45291</v>
       </c>
       <c r="B1080">
@@ -12308,7 +12310,7 @@
       </c>
     </row>
     <row r="1081" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1081" s="3">
+      <c r="A1081" s="2">
         <v>45291</v>
       </c>
       <c r="B1081">
@@ -12319,7 +12321,7 @@
       </c>
     </row>
     <row r="1082" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1082" s="3">
+      <c r="A1082" s="2">
         <v>45322</v>
       </c>
       <c r="B1082">
@@ -12330,7 +12332,7 @@
       </c>
     </row>
     <row r="1083" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1083" s="3">
+      <c r="A1083" s="2">
         <v>45322</v>
       </c>
       <c r="B1083">
@@ -12341,7 +12343,7 @@
       </c>
     </row>
     <row r="1084" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1084" s="3">
+      <c r="A1084" s="2">
         <v>45322</v>
       </c>
       <c r="B1084">
@@ -12352,7 +12354,7 @@
       </c>
     </row>
     <row r="1085" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1085" s="3">
+      <c r="A1085" s="2">
         <v>45322</v>
       </c>
       <c r="B1085">
@@ -12363,7 +12365,7 @@
       </c>
     </row>
     <row r="1086" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1086" s="3">
+      <c r="A1086" s="2">
         <v>45322</v>
       </c>
       <c r="B1086">
@@ -12374,7 +12376,7 @@
       </c>
     </row>
     <row r="1087" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1087" s="3">
+      <c r="A1087" s="2">
         <v>45322</v>
       </c>
       <c r="B1087">
@@ -12385,7 +12387,7 @@
       </c>
     </row>
     <row r="1088" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1088" s="3">
+      <c r="A1088" s="2">
         <v>45351</v>
       </c>
       <c r="B1088">
@@ -12396,7 +12398,7 @@
       </c>
     </row>
     <row r="1089" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1089" s="3">
+      <c r="A1089" s="2">
         <v>45351</v>
       </c>
       <c r="B1089">
@@ -12407,7 +12409,7 @@
       </c>
     </row>
     <row r="1090" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1090" s="3">
+      <c r="A1090" s="2">
         <v>45351</v>
       </c>
       <c r="B1090">
@@ -12418,7 +12420,7 @@
       </c>
     </row>
     <row r="1091" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1091" s="3">
+      <c r="A1091" s="2">
         <v>45351</v>
       </c>
       <c r="B1091">
@@ -12429,7 +12431,7 @@
       </c>
     </row>
     <row r="1092" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1092" s="3">
+      <c r="A1092" s="2">
         <v>45351</v>
       </c>
       <c r="B1092">
@@ -12440,7 +12442,7 @@
       </c>
     </row>
     <row r="1093" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1093" s="3">
+      <c r="A1093" s="2">
         <v>45351</v>
       </c>
       <c r="B1093">
@@ -12451,7 +12453,7 @@
       </c>
     </row>
     <row r="1094" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1094" s="3">
+      <c r="A1094" s="2">
         <v>45382</v>
       </c>
       <c r="B1094">
@@ -12462,7 +12464,7 @@
       </c>
     </row>
     <row r="1095" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1095" s="3">
+      <c r="A1095" s="2">
         <v>45382</v>
       </c>
       <c r="B1095">
@@ -12473,7 +12475,7 @@
       </c>
     </row>
     <row r="1096" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1096" s="3">
+      <c r="A1096" s="2">
         <v>45382</v>
       </c>
       <c r="B1096">
@@ -12484,7 +12486,7 @@
       </c>
     </row>
     <row r="1097" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1097" s="3">
+      <c r="A1097" s="2">
         <v>45382</v>
       </c>
       <c r="B1097">
@@ -12495,7 +12497,7 @@
       </c>
     </row>
     <row r="1098" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1098" s="3">
+      <c r="A1098" s="2">
         <v>45382</v>
       </c>
       <c r="B1098">
@@ -12506,7 +12508,7 @@
       </c>
     </row>
     <row r="1099" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1099" s="3">
+      <c r="A1099" s="2">
         <v>45382</v>
       </c>
       <c r="B1099">
@@ -12517,7 +12519,7 @@
       </c>
     </row>
     <row r="1100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1100" s="3">
+      <c r="A1100" s="2">
         <v>45412</v>
       </c>
       <c r="B1100">
@@ -12528,7 +12530,7 @@
       </c>
     </row>
     <row r="1101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1101" s="3">
+      <c r="A1101" s="2">
         <v>45412</v>
       </c>
       <c r="B1101">
@@ -12539,7 +12541,7 @@
       </c>
     </row>
     <row r="1102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1102" s="3">
+      <c r="A1102" s="2">
         <v>45412</v>
       </c>
       <c r="B1102">
@@ -12550,7 +12552,7 @@
       </c>
     </row>
     <row r="1103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1103" s="3">
+      <c r="A1103" s="2">
         <v>45412</v>
       </c>
       <c r="B1103">
@@ -12561,7 +12563,7 @@
       </c>
     </row>
     <row r="1104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1104" s="3">
+      <c r="A1104" s="2">
         <v>45412</v>
       </c>
       <c r="B1104">
@@ -12572,7 +12574,7 @@
       </c>
     </row>
     <row r="1105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1105" s="3">
+      <c r="A1105" s="2">
         <v>45412</v>
       </c>
       <c r="B1105">
@@ -12583,7 +12585,7 @@
       </c>
     </row>
     <row r="1106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1106" s="3">
+      <c r="A1106" s="2">
         <v>45443</v>
       </c>
       <c r="B1106">
@@ -12594,7 +12596,7 @@
       </c>
     </row>
     <row r="1107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1107" s="3">
+      <c r="A1107" s="2">
         <v>45443</v>
       </c>
       <c r="B1107">
@@ -12605,7 +12607,7 @@
       </c>
     </row>
     <row r="1108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1108" s="3">
+      <c r="A1108" s="2">
         <v>45443</v>
       </c>
       <c r="B1108">
@@ -12616,7 +12618,7 @@
       </c>
     </row>
     <row r="1109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1109" s="3">
+      <c r="A1109" s="2">
         <v>45443</v>
       </c>
       <c r="B1109">
@@ -12627,7 +12629,7 @@
       </c>
     </row>
     <row r="1110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1110" s="3">
+      <c r="A1110" s="2">
         <v>45443</v>
       </c>
       <c r="B1110">
@@ -12638,7 +12640,7 @@
       </c>
     </row>
     <row r="1111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1111" s="3">
+      <c r="A1111" s="2">
         <v>45443</v>
       </c>
       <c r="B1111">
@@ -12649,7 +12651,7 @@
       </c>
     </row>
     <row r="1112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1112" s="3">
+      <c r="A1112" s="2">
         <v>45473</v>
       </c>
       <c r="B1112">
@@ -12660,7 +12662,7 @@
       </c>
     </row>
     <row r="1113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1113" s="3">
+      <c r="A1113" s="2">
         <v>45473</v>
       </c>
       <c r="B1113">
@@ -12671,7 +12673,7 @@
       </c>
     </row>
     <row r="1114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1114" s="3">
+      <c r="A1114" s="2">
         <v>45473</v>
       </c>
       <c r="B1114">
@@ -12682,7 +12684,7 @@
       </c>
     </row>
     <row r="1115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1115" s="3">
+      <c r="A1115" s="2">
         <v>45473</v>
       </c>
       <c r="B1115">
@@ -12693,7 +12695,7 @@
       </c>
     </row>
     <row r="1116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1116" s="3">
+      <c r="A1116" s="2">
         <v>45473</v>
       </c>
       <c r="B1116">
@@ -12704,7 +12706,7 @@
       </c>
     </row>
     <row r="1117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1117" s="3">
+      <c r="A1117" s="2">
         <v>45473</v>
       </c>
       <c r="B1117">
@@ -12715,7 +12717,7 @@
       </c>
     </row>
     <row r="1118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1118" s="3">
+      <c r="A1118" s="2">
         <v>45504</v>
       </c>
       <c r="B1118">
@@ -12726,7 +12728,7 @@
       </c>
     </row>
     <row r="1119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1119" s="3">
+      <c r="A1119" s="2">
         <v>45504</v>
       </c>
       <c r="B1119">
@@ -12737,7 +12739,7 @@
       </c>
     </row>
     <row r="1120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1120" s="3">
+      <c r="A1120" s="2">
         <v>45504</v>
       </c>
       <c r="B1120">
@@ -12748,7 +12750,7 @@
       </c>
     </row>
     <row r="1121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1121" s="3">
+      <c r="A1121" s="2">
         <v>45504</v>
       </c>
       <c r="B1121">
@@ -12759,7 +12761,7 @@
       </c>
     </row>
     <row r="1122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1122" s="3">
+      <c r="A1122" s="2">
         <v>45504</v>
       </c>
       <c r="B1122">
@@ -12770,7 +12772,7 @@
       </c>
     </row>
     <row r="1123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1123" s="3">
+      <c r="A1123" s="2">
         <v>45504</v>
       </c>
       <c r="B1123">
@@ -12781,7 +12783,7 @@
       </c>
     </row>
     <row r="1124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1124" s="3">
+      <c r="A1124" s="2">
         <v>45535</v>
       </c>
       <c r="B1124">
@@ -12792,7 +12794,7 @@
       </c>
     </row>
     <row r="1125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1125" s="3">
+      <c r="A1125" s="2">
         <v>45535</v>
       </c>
       <c r="B1125">
@@ -12803,7 +12805,7 @@
       </c>
     </row>
     <row r="1126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1126" s="3">
+      <c r="A1126" s="2">
         <v>45535</v>
       </c>
       <c r="B1126">
@@ -12814,7 +12816,7 @@
       </c>
     </row>
     <row r="1127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1127" s="3">
+      <c r="A1127" s="2">
         <v>45535</v>
       </c>
       <c r="B1127">
@@ -12825,7 +12827,7 @@
       </c>
     </row>
     <row r="1128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1128" s="3">
+      <c r="A1128" s="2">
         <v>45535</v>
       </c>
       <c r="B1128">
@@ -12836,7 +12838,7 @@
       </c>
     </row>
     <row r="1129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1129" s="3">
+      <c r="A1129" s="2">
         <v>45535</v>
       </c>
       <c r="B1129">
@@ -12847,7 +12849,7 @@
       </c>
     </row>
     <row r="1130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1130" s="3">
+      <c r="A1130" s="2">
         <v>45565</v>
       </c>
       <c r="B1130">
@@ -12858,7 +12860,7 @@
       </c>
     </row>
     <row r="1131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1131" s="3">
+      <c r="A1131" s="2">
         <v>45565</v>
       </c>
       <c r="B1131">
@@ -12869,7 +12871,7 @@
       </c>
     </row>
     <row r="1132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1132" s="3">
+      <c r="A1132" s="2">
         <v>45565</v>
       </c>
       <c r="B1132">
@@ -12880,7 +12882,7 @@
       </c>
     </row>
     <row r="1133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1133" s="3">
+      <c r="A1133" s="2">
         <v>45565</v>
       </c>
       <c r="B1133">
@@ -12891,7 +12893,7 @@
       </c>
     </row>
     <row r="1134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1134" s="3">
+      <c r="A1134" s="2">
         <v>45565</v>
       </c>
       <c r="B1134">
@@ -12902,7 +12904,7 @@
       </c>
     </row>
     <row r="1135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1135" s="3">
+      <c r="A1135" s="2">
         <v>45565</v>
       </c>
       <c r="B1135">
@@ -12913,7 +12915,7 @@
       </c>
     </row>
     <row r="1136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1136" s="3">
+      <c r="A1136" s="2">
         <v>45596</v>
       </c>
       <c r="B1136">
@@ -12924,7 +12926,7 @@
       </c>
     </row>
     <row r="1137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1137" s="3">
+      <c r="A1137" s="2">
         <v>45596</v>
       </c>
       <c r="B1137">
@@ -12935,7 +12937,7 @@
       </c>
     </row>
     <row r="1138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1138" s="3">
+      <c r="A1138" s="2">
         <v>45596</v>
       </c>
       <c r="B1138">
@@ -12946,7 +12948,7 @@
       </c>
     </row>
     <row r="1139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1139" s="3">
+      <c r="A1139" s="2">
         <v>45596</v>
       </c>
       <c r="B1139">
@@ -12957,7 +12959,7 @@
       </c>
     </row>
     <row r="1140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1140" s="3">
+      <c r="A1140" s="2">
         <v>45596</v>
       </c>
       <c r="B1140">
@@ -12968,7 +12970,7 @@
       </c>
     </row>
     <row r="1141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1141" s="3">
+      <c r="A1141" s="2">
         <v>45596</v>
       </c>
       <c r="B1141">
@@ -12979,7 +12981,7 @@
       </c>
     </row>
     <row r="1142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1142" s="3">
+      <c r="A1142" s="2">
         <v>45626</v>
       </c>
       <c r="B1142">
@@ -12990,7 +12992,7 @@
       </c>
     </row>
     <row r="1143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1143" s="3">
+      <c r="A1143" s="2">
         <v>45626</v>
       </c>
       <c r="B1143">
@@ -13001,7 +13003,7 @@
       </c>
     </row>
     <row r="1144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1144" s="3">
+      <c r="A1144" s="2">
         <v>45626</v>
       </c>
       <c r="B1144">
@@ -13012,7 +13014,7 @@
       </c>
     </row>
     <row r="1145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1145" s="3">
+      <c r="A1145" s="2">
         <v>45626</v>
       </c>
       <c r="B1145">
@@ -13023,7 +13025,7 @@
       </c>
     </row>
     <row r="1146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1146" s="3">
+      <c r="A1146" s="2">
         <v>45626</v>
       </c>
       <c r="B1146">
@@ -13034,7 +13036,7 @@
       </c>
     </row>
     <row r="1147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1147" s="3">
+      <c r="A1147" s="2">
         <v>45626</v>
       </c>
       <c r="B1147">
@@ -13045,7 +13047,7 @@
       </c>
     </row>
     <row r="1148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1148" s="3">
+      <c r="A1148" s="2">
         <v>45657</v>
       </c>
       <c r="B1148">
@@ -13056,7 +13058,7 @@
       </c>
     </row>
     <row r="1149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1149" s="3">
+      <c r="A1149" s="2">
         <v>45657</v>
       </c>
       <c r="B1149">
@@ -13067,7 +13069,7 @@
       </c>
     </row>
     <row r="1150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1150" s="3">
+      <c r="A1150" s="2">
         <v>45657</v>
       </c>
       <c r="B1150">
@@ -13078,7 +13080,7 @@
       </c>
     </row>
     <row r="1151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1151" s="3">
+      <c r="A1151" s="2">
         <v>45657</v>
       </c>
       <c r="B1151">
@@ -13089,7 +13091,7 @@
       </c>
     </row>
     <row r="1152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1152" s="3">
+      <c r="A1152" s="2">
         <v>45657</v>
       </c>
       <c r="B1152">
@@ -13100,7 +13102,7 @@
       </c>
     </row>
     <row r="1153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1153" s="3">
+      <c r="A1153" s="2">
         <v>45657</v>
       </c>
       <c r="B1153">
@@ -13108,6 +13110,17 @@
       </c>
       <c r="C1153" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1154" s="2">
+        <v>45657</v>
+      </c>
+      <c r="B1154">
+        <v>1400</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
